--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BDE3F-5324-C747-9D0D-86861385DC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F895CC6-BDCE-4741-9EB9-2E875ED00456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -481,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
   <si>
     <t>WBS</t>
   </si>
@@ -1590,6 +1591,21 @@
   </si>
   <si>
     <t>Especificação</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Escrita do relatório</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -3063,7 +3079,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3567,9 +3583,6 @@
     <xf numFmtId="1" fontId="61" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="59" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3603,12 +3616,6 @@
     <xf numFmtId="1" fontId="61" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="61" fillId="22" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,22 +3625,70 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3681,56 +3736,29 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3919,8 +3947,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4560,11 +4588,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET47"/>
+  <dimension ref="A1:ET48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4614,21 +4642,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="210"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="210"/>
-      <c r="AL1" s="210"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="210"/>
-      <c r="AO1" s="210"/>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="210"/>
-      <c r="AR1" s="210"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="225"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="225"/>
+      <c r="AN1" s="225"/>
+      <c r="AO1" s="225"/>
+      <c r="AP1" s="225"/>
+      <c r="AQ1" s="225"/>
+      <c r="AR1" s="225"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4731,191 +4759,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="219">
+      <c r="C4" s="232">
         <v>43507</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="217" t="str">
+      <c r="K4" s="230" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="217" t="str">
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="230" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="212"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="226" t="str">
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="231"/>
+      <c r="Y4" s="239" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="212"/>
-      <c r="AD4" s="212"/>
-      <c r="AE4" s="227"/>
-      <c r="AF4" s="211" t="str">
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="226" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="212"/>
-      <c r="AH4" s="212"/>
-      <c r="AI4" s="212"/>
-      <c r="AJ4" s="212"/>
-      <c r="AK4" s="212"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="240" t="str">
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="208"/>
+      <c r="AL4" s="227"/>
+      <c r="AM4" s="219" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="212"/>
-      <c r="AO4" s="212"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="212"/>
-      <c r="AR4" s="212"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="236" t="str">
+      <c r="AN4" s="208"/>
+      <c r="AO4" s="208"/>
+      <c r="AP4" s="208"/>
+      <c r="AQ4" s="208"/>
+      <c r="AR4" s="208"/>
+      <c r="AS4" s="220"/>
+      <c r="AT4" s="215" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="212"/>
-      <c r="AV4" s="212"/>
-      <c r="AW4" s="212"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="237"/>
-      <c r="BA4" s="242" t="str">
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="216"/>
+      <c r="BA4" s="221" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="212"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="212"/>
-      <c r="BF4" s="212"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="230" t="str">
+      <c r="BB4" s="208"/>
+      <c r="BC4" s="208"/>
+      <c r="BD4" s="208"/>
+      <c r="BE4" s="208"/>
+      <c r="BF4" s="208"/>
+      <c r="BG4" s="222"/>
+      <c r="BH4" s="207" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="212"/>
-      <c r="BJ4" s="212"/>
-      <c r="BK4" s="212"/>
-      <c r="BL4" s="212"/>
-      <c r="BM4" s="212"/>
-      <c r="BN4" s="231"/>
+      <c r="BI4" s="208"/>
+      <c r="BJ4" s="208"/>
+      <c r="BK4" s="208"/>
+      <c r="BL4" s="208"/>
+      <c r="BM4" s="208"/>
+      <c r="BN4" s="209"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="234"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="223">
+      <c r="K5" s="236">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="223">
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="236">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="228">
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="237"/>
+      <c r="Y5" s="241">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="229"/>
-      <c r="AF5" s="214">
+      <c r="Z5" s="211"/>
+      <c r="AA5" s="211"/>
+      <c r="AB5" s="211"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="242"/>
+      <c r="AF5" s="228">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="216"/>
-      <c r="AM5" s="234">
+      <c r="AG5" s="211"/>
+      <c r="AH5" s="211"/>
+      <c r="AI5" s="211"/>
+      <c r="AJ5" s="211"/>
+      <c r="AK5" s="211"/>
+      <c r="AL5" s="229"/>
+      <c r="AM5" s="213">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="215"/>
-      <c r="AP5" s="215"/>
-      <c r="AQ5" s="215"/>
-      <c r="AR5" s="215"/>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="238">
+      <c r="AN5" s="211"/>
+      <c r="AO5" s="211"/>
+      <c r="AP5" s="211"/>
+      <c r="AQ5" s="211"/>
+      <c r="AR5" s="211"/>
+      <c r="AS5" s="214"/>
+      <c r="AT5" s="217">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="215"/>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="239"/>
-      <c r="BA5" s="244">
+      <c r="AU5" s="211"/>
+      <c r="AV5" s="211"/>
+      <c r="AW5" s="211"/>
+      <c r="AX5" s="211"/>
+      <c r="AY5" s="211"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="223">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="245"/>
-      <c r="BH5" s="232">
+      <c r="BB5" s="211"/>
+      <c r="BC5" s="211"/>
+      <c r="BD5" s="211"/>
+      <c r="BE5" s="211"/>
+      <c r="BF5" s="211"/>
+      <c r="BG5" s="224"/>
+      <c r="BH5" s="210">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="215"/>
-      <c r="BJ5" s="215"/>
-      <c r="BK5" s="215"/>
-      <c r="BL5" s="215"/>
-      <c r="BM5" s="215"/>
-      <c r="BN5" s="233"/>
+      <c r="BI5" s="211"/>
+      <c r="BJ5" s="211"/>
+      <c r="BK5" s="211"/>
+      <c r="BL5" s="211"/>
+      <c r="BM5" s="211"/>
+      <c r="BN5" s="212"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5565,7 +5593,7 @@
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
     </row>
-    <row r="9" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="9" spans="1:150" s="45" customFormat="1">
       <c r="A9" s="121" t="str">
         <f t="shared" ref="A9:A15" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5577,22 +5605,26 @@
         <v>137</v>
       </c>
       <c r="D9" s="119"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="112" t="str">
+      <c r="E9" s="116">
+        <v>43515</v>
+      </c>
+      <c r="F9" s="112">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43516</v>
       </c>
       <c r="G9" s="67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="134">
         <f>IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="202"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="244" t="s">
+        <v>157</v>
+      </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
@@ -5650,7 +5682,7 @@
       <c r="BM9" s="47"/>
       <c r="BN9" s="47"/>
     </row>
-    <row r="10" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="10" spans="1:150" s="45" customFormat="1">
       <c r="A10" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
@@ -5662,23 +5694,25 @@
         <v>138</v>
       </c>
       <c r="D10" s="119"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="112" t="str">
+      <c r="E10" s="116">
+        <v>43516</v>
+      </c>
+      <c r="F10" s="112">
         <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43516</v>
       </c>
       <c r="G10" s="67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="68">
         <v>0</v>
       </c>
       <c r="I10" s="134">
         <f t="shared" ref="I10:I18" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="192"/>
-      <c r="K10" s="203"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="202"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
@@ -5735,7 +5769,7 @@
       <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
     </row>
-    <row r="11" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="11" spans="1:150" s="45" customFormat="1">
       <c r="A11" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
@@ -5753,7 +5787,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G11" s="67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="68">
         <v>0</v>
@@ -5762,8 +5796,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J11" s="192"/>
-      <c r="K11" s="203"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
@@ -5820,7 +5854,7 @@
       <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
     </row>
-    <row r="12" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="12" spans="1:150" s="45" customFormat="1">
       <c r="A12" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
@@ -5838,7 +5872,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G12" s="67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="68">
         <v>0</v>
@@ -5847,8 +5881,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J12" s="192"/>
-      <c r="K12" s="203"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
@@ -5923,7 +5957,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G13" s="67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="68">
         <v>0</v>
@@ -5932,8 +5966,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J13" s="192"/>
-      <c r="K13" s="203"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="202"/>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
@@ -6008,7 +6042,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G14" s="67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H14" s="68">
         <v>0</v>
@@ -6017,7 +6051,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J14" s="204"/>
+      <c r="J14" s="245"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
@@ -6075,7 +6109,7 @@
       <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
     </row>
-    <row r="15" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="15" spans="1:150" s="45" customFormat="1">
       <c r="A15" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.7</v>
@@ -6093,7 +6127,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G15" s="67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H15" s="68">
         <v>0</v>
@@ -6102,8 +6136,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J15" s="192"/>
-      <c r="K15" s="203"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="202"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -6160,18 +6194,18 @@
       <c r="BM15" s="47"/>
       <c r="BN15" s="47"/>
     </row>
-    <row r="16" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="16" spans="1:150" s="45" customFormat="1" ht="12">
       <c r="A16" s="121" t="s">
         <v>147</v>
       </c>
       <c r="B16" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="194" t="s">
         <v>146</v>
       </c>
       <c r="D16" s="183"/>
-      <c r="E16" s="209"/>
+      <c r="E16" s="206"/>
       <c r="F16" s="184" t="str">
         <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v xml:space="preserve"> - </v>
@@ -6186,8 +6220,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J16" s="205"/>
-      <c r="K16" s="203"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="202"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -6244,34 +6278,38 @@
       <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
     </row>
-    <row r="17" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="17" spans="1:66" s="45" customFormat="1" ht="12">
       <c r="A17" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="195" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="183"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="184" t="str">
+      <c r="E17" s="193">
+        <v>43513</v>
+      </c>
+      <c r="F17" s="184">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43515</v>
       </c>
       <c r="G17" s="189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="190">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="187">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="206"/>
-      <c r="K17" s="203"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="247" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="202"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
@@ -6332,30 +6370,30 @@
       <c r="A18" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="195" t="s">
         <v>142</v>
       </c>
       <c r="D18" s="183"/>
-      <c r="E18" s="198"/>
+      <c r="E18" s="197"/>
       <c r="F18" s="184" t="str">
         <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G18" s="200">
+      <c r="G18" s="199">
         <v>0</v>
       </c>
-      <c r="H18" s="201">
+      <c r="H18" s="200">
         <v>0</v>
       </c>
       <c r="I18" s="187">
-        <f t="shared" si="9"/>
+        <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="193"/>
-      <c r="K18" s="203"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
@@ -6412,191 +6450,195 @@
       <c r="BM18" s="47"/>
       <c r="BN18" s="47"/>
     </row>
-    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A19" s="122" t="str">
+    <row r="19" spans="1:66" s="45" customFormat="1">
+      <c r="A19" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="248" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="249" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="183"/>
+      <c r="E19" s="250">
+        <v>43515</v>
+      </c>
+      <c r="F19" s="184">
+        <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>43515</v>
+      </c>
+      <c r="G19" s="185">
+        <v>1</v>
+      </c>
+      <c r="H19" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="187">
+        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="185" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="47"/>
+    </row>
+    <row r="20" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A20" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B20" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-    </row>
-    <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A20" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F20" s="112">
-        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43144</v>
-      </c>
-      <c r="G20" s="67">
-        <v>4</v>
-      </c>
-      <c r="H20" s="68">
-        <v>0</v>
-      </c>
-      <c r="I20" s="134">
-        <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="202"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="47"/>
-      <c r="AX20" s="47"/>
-      <c r="AY20" s="47"/>
-      <c r="AZ20" s="47"/>
-      <c r="BA20" s="47"/>
-      <c r="BB20" s="47"/>
-      <c r="BC20" s="47"/>
-      <c r="BD20" s="47"/>
-      <c r="BE20" s="47"/>
-      <c r="BF20" s="47"/>
-      <c r="BG20" s="47"/>
-      <c r="BH20" s="47"/>
-      <c r="BI20" s="47"/>
-      <c r="BJ20" s="47"/>
-      <c r="BK20" s="47"/>
-      <c r="BL20" s="47"/>
-      <c r="BM20" s="47"/>
-      <c r="BN20" s="47"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="52"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="52"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
     </row>
     <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A21" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="116">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F21" s="112">
-        <f t="shared" si="11"/>
-        <v>43147</v>
+        <f t="shared" ref="F21:F25" si="11">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>43144</v>
       </c>
       <c r="G21" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="68">
         <v>0</v>
       </c>
       <c r="I21" s="134">
         <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="192"/>
-      <c r="K21" s="203"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="201"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -6656,7 +6698,7 @@
     <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A22" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>7</v>
@@ -6680,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="192"/>
-      <c r="K22" s="203"/>
+      <c r="K22" s="202"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6740,31 +6782,31 @@
     <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A23" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="F23" s="112">
         <f t="shared" si="11"/>
-        <v>43153</v>
+        <v>43147</v>
       </c>
       <c r="G23" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" s="68">
         <v>0</v>
       </c>
       <c r="I23" s="134">
         <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="192"/>
-      <c r="K23" s="203"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6824,31 +6866,31 @@
     <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A24" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="116">
-        <v>43154</v>
+        <v>43148</v>
       </c>
       <c r="F24" s="112">
         <f t="shared" si="11"/>
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="G24" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="68">
         <v>0</v>
       </c>
       <c r="I24" s="134">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" s="192"/>
-      <c r="K24" s="203"/>
+      <c r="K24" s="202"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6905,190 +6947,190 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A25" s="122" t="str">
+    <row r="25" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A25" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="116">
+        <v>43154</v>
+      </c>
+      <c r="F25" s="112">
+        <f t="shared" si="11"/>
+        <v>43156</v>
+      </c>
+      <c r="G25" s="67">
+        <v>3</v>
+      </c>
+      <c r="H25" s="68">
+        <v>0</v>
+      </c>
+      <c r="I25" s="134">
+        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="192"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
+    </row>
+    <row r="26" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A26" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B26" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-    </row>
-    <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A26" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F26" s="112">
-        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>43144</v>
-      </c>
-      <c r="G26" s="67">
-        <v>4</v>
-      </c>
-      <c r="H26" s="68">
-        <v>0</v>
-      </c>
-      <c r="I26" s="134">
-        <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="47"/>
-      <c r="AX26" s="47"/>
-      <c r="AY26" s="47"/>
-      <c r="AZ26" s="47"/>
-      <c r="BA26" s="47"/>
-      <c r="BB26" s="47"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="47"/>
-      <c r="BE26" s="47"/>
-      <c r="BF26" s="47"/>
-      <c r="BG26" s="47"/>
-      <c r="BH26" s="47"/>
-      <c r="BI26" s="47"/>
-      <c r="BJ26" s="47"/>
-      <c r="BK26" s="47"/>
-      <c r="BL26" s="47"/>
-      <c r="BM26" s="47"/>
-      <c r="BN26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="52"/>
+      <c r="BF26" s="52"/>
+      <c r="BG26" s="52"/>
+      <c r="BH26" s="52"/>
+      <c r="BI26" s="52"/>
+      <c r="BJ26" s="52"/>
+      <c r="BK26" s="52"/>
+      <c r="BL26" s="52"/>
+      <c r="BM26" s="52"/>
+      <c r="BN26" s="52"/>
     </row>
     <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A27" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="116">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F27" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
+        <f t="shared" ref="F27:F31" si="12">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>43144</v>
       </c>
       <c r="G27" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="68">
         <v>0</v>
       </c>
       <c r="I27" s="134">
         <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="204"/>
-      <c r="K27" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="192"/>
+      <c r="K27" s="202"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
@@ -7148,7 +7190,7 @@
     <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A28" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>7</v>
@@ -7171,7 +7213,7 @@
         <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
         <v>3</v>
       </c>
-      <c r="J28" s="204"/>
+      <c r="J28" s="203"/>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
@@ -7232,30 +7274,30 @@
     <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="116">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="F29" s="112">
         <f t="shared" si="12"/>
-        <v>43153</v>
+        <v>43147</v>
       </c>
       <c r="G29" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" s="68">
         <v>0</v>
       </c>
       <c r="I29" s="134">
         <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="204"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="203"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -7316,30 +7358,30 @@
     <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A30" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="116">
-        <v>43154</v>
+        <v>43148</v>
       </c>
       <c r="F30" s="112">
         <f t="shared" si="12"/>
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="G30" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H30" s="68">
         <v>0</v>
       </c>
       <c r="I30" s="134">
         <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="207"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="203"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -7397,177 +7439,177 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A31" s="122" t="str">
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A31" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="116">
+        <v>43154</v>
+      </c>
+      <c r="F31" s="112">
+        <f t="shared" si="12"/>
+        <v>43156</v>
+      </c>
+      <c r="G31" s="67">
+        <v>3</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0</v>
+      </c>
+      <c r="I31" s="134">
+        <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="204"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
+    </row>
+    <row r="32" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A32" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B32" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
-      <c r="BB31" s="52"/>
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52"/>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="52"/>
-      <c r="BM31" s="52"/>
-      <c r="BN31" s="52"/>
-    </row>
-    <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A32" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="116">
-        <v>43129</v>
-      </c>
-      <c r="F32" s="112">
-        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>43129</v>
-      </c>
-      <c r="G32" s="67">
-        <v>1</v>
-      </c>
-      <c r="H32" s="68">
-        <v>0</v>
-      </c>
-      <c r="I32" s="134">
-        <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="202"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="47"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="47"/>
-      <c r="AU32" s="47"/>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
-      <c r="AX32" s="47"/>
-      <c r="AY32" s="47"/>
-      <c r="AZ32" s="47"/>
-      <c r="BA32" s="47"/>
-      <c r="BB32" s="47"/>
-      <c r="BC32" s="47"/>
-      <c r="BD32" s="47"/>
-      <c r="BE32" s="47"/>
-      <c r="BF32" s="47"/>
-      <c r="BG32" s="47"/>
-      <c r="BH32" s="47"/>
-      <c r="BI32" s="47"/>
-      <c r="BJ32" s="47"/>
-      <c r="BK32" s="47"/>
-      <c r="BL32" s="47"/>
-      <c r="BM32" s="47"/>
-      <c r="BN32" s="47"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="52"/>
+      <c r="BD32" s="52"/>
+      <c r="BE32" s="52"/>
+      <c r="BF32" s="52"/>
+      <c r="BG32" s="52"/>
+      <c r="BH32" s="52"/>
+      <c r="BI32" s="52"/>
+      <c r="BJ32" s="52"/>
+      <c r="BK32" s="52"/>
+      <c r="BL32" s="52"/>
+      <c r="BM32" s="52"/>
+      <c r="BN32" s="52"/>
     </row>
     <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A33" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="116">
-        <v>43130</v>
+        <v>43129</v>
       </c>
       <c r="F33" s="112">
-        <f t="shared" si="13"/>
-        <v>43130</v>
+        <f t="shared" ref="F33:F37" si="13">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>43129</v>
       </c>
       <c r="G33" s="67">
         <v>1</v>
@@ -7579,7 +7621,7 @@
         <f>IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
         <v>1</v>
       </c>
-      <c r="J33" s="204"/>
+      <c r="J33" s="201"/>
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
@@ -7640,18 +7682,18 @@
     <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="F34" s="112">
         <f t="shared" si="13"/>
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="G34" s="67">
         <v>1</v>
@@ -7663,7 +7705,7 @@
         <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
         <v>1</v>
       </c>
-      <c r="J34" s="204"/>
+      <c r="J34" s="203"/>
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
@@ -7724,18 +7766,18 @@
     <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43132</v>
+        <v>43131</v>
       </c>
       <c r="F35" s="112">
         <f t="shared" si="13"/>
-        <v>43132</v>
+        <v>43131</v>
       </c>
       <c r="G35" s="67">
         <v>1</v>
@@ -7747,7 +7789,7 @@
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
-      <c r="J35" s="204"/>
+      <c r="J35" s="203"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
@@ -7808,18 +7850,18 @@
     <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A36" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="116">
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="F36" s="112">
         <f t="shared" si="13"/>
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="G36" s="67">
         <v>1</v>
@@ -7831,7 +7873,7 @@
         <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
-      <c r="J36" s="207"/>
+      <c r="J36" s="203"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -7889,17 +7931,33 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="126"/>
+    <row r="37" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A37" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="116">
+        <v>43133</v>
+      </c>
+      <c r="F37" s="112">
+        <f t="shared" si="13"/>
+        <v>43133</v>
+      </c>
+      <c r="G37" s="67">
+        <v>1</v>
+      </c>
+      <c r="H37" s="68">
+        <v>0</v>
+      </c>
+      <c r="I37" s="134">
+        <f>IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="204"/>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
@@ -8025,19 +8083,17 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A39" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+    <row r="39" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A39" s="44"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="126"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
@@ -8095,19 +8151,19 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A40" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+    <row r="40" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A40" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8165,22 +8221,19 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A41" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="125"/>
+    <row r="41" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A41" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="143"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8239,29 +8292,21 @@
       <c r="BN41" s="47"/>
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A42" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="112" t="str">
-        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68">
-        <v>0</v>
-      </c>
-      <c r="I42" s="134">
-        <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="124"/>
+      <c r="A42" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="125"/>
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
@@ -8321,17 +8366,17 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="str">
-        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="67"/>
@@ -8339,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="134">
-        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
+        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="124"/>
@@ -8402,17 +8447,17 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
       <c r="E44" s="116"/>
       <c r="F44" s="112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F44:F45" si="14">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="67"/>
@@ -8420,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="134">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I44:I45" si="15">IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
         <v>0</v>
       </c>
       <c r="J44" s="124"/>
@@ -8481,87 +8526,160 @@
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
     </row>
-    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="60"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="60"/>
-      <c r="AV45" s="60"/>
-      <c r="AW45" s="60"/>
-      <c r="AX45" s="60"/>
-      <c r="AY45" s="60"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="60"/>
-      <c r="BB45" s="60"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="60"/>
-      <c r="BE45" s="60"/>
-      <c r="BF45" s="60"/>
-      <c r="BG45" s="60"/>
-      <c r="BH45" s="60"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="60"/>
-      <c r="BK45" s="60"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="60"/>
-      <c r="BN45" s="60"/>
-    </row>
-    <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A45" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="112" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68">
+        <v>0</v>
+      </c>
+      <c r="I45" s="134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="124"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
+      <c r="BD45" s="47"/>
+      <c r="BE45" s="47"/>
+      <c r="BF45" s="47"/>
+      <c r="BG45" s="47"/>
+      <c r="BH45" s="47"/>
+      <c r="BI45" s="47"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="47"/>
+      <c r="BL45" s="47"/>
+      <c r="BM45" s="47"/>
+      <c r="BN45" s="47"/>
+    </row>
+    <row r="46" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
+      <c r="AQ46" s="60"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
+      <c r="AT46" s="60"/>
+      <c r="AU46" s="60"/>
+      <c r="AV46" s="60"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="60"/>
+      <c r="BH46" s="60"/>
+      <c r="BI46" s="60"/>
+      <c r="BJ46" s="60"/>
+      <c r="BK46" s="60"/>
+      <c r="BL46" s="60"/>
+      <c r="BM46" s="60"/>
+      <c r="BN46" s="60"/>
+    </row>
     <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="48" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8573,9 +8691,17 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H40:H44 H8:H38">
+  <conditionalFormatting sqref="H41:H45 H8:H39">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8594,7 +8720,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
+  <conditionalFormatting sqref="K8:BN45">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8602,7 +8728,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
+  <conditionalFormatting sqref="K6:BN45">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8614,8 +8740,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I14 I13 I11 I12 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A25 A19" formula="1"/>
+    <ignoredError sqref="A38:B39 B33 B34:B36 B27:B30 B21:B24 B41 B40 F20 F26 F32 E38:I41 I21 I14 I13 I11 I12 I10 E44:E45 E42:I42 H33:I36 H27:I30 H22:I24 H20:I20 H26:I26 H32:I32" unlockedFormula="1"/>
+    <ignoredError sqref="A32 A26 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8663,7 +8789,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40:H44 H8:H38</xm:sqref>
+          <xm:sqref>H41:H45 H8:H39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8736,10 +8862,10 @@
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="246"/>
+      <c r="B13" s="243"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8800,10 +8926,10 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="246" t="s">
+      <c r="A23" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="246"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -8904,10 +9030,10 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="246" t="s">
+      <c r="A37" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="246"/>
+      <c r="B37" s="243"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="B38" s="162" t="s">
@@ -8944,10 +9070,10 @@
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="246" t="s">
+      <c r="A48" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="246"/>
+      <c r="B48" s="243"/>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="B49" s="162" t="s">
@@ -9045,10 +9171,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="246" t="s">
+      <c r="A64" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="246"/>
+      <c r="B64" s="243"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
@@ -9062,10 +9188,10 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="246" t="s">
+      <c r="A67" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="246"/>
+      <c r="B67" s="243"/>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
       <c r="A68" s="171" t="s">

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F895CC6-BDCE-4741-9EB9-2E875ED00456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113CDF71-89E1-F346-9F9D-22599E4C1B5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
   <si>
     <t>WBS</t>
   </si>
@@ -1606,6 +1606,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -3625,70 +3628,43 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3736,29 +3712,56 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4592,7 +4595,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4642,21 +4645,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="225"/>
-      <c r="AL1" s="225"/>
-      <c r="AM1" s="225"/>
-      <c r="AN1" s="225"/>
-      <c r="AO1" s="225"/>
-      <c r="AP1" s="225"/>
-      <c r="AQ1" s="225"/>
-      <c r="AR1" s="225"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="214"/>
+      <c r="AQ1" s="214"/>
+      <c r="AR1" s="214"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4759,191 +4762,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="232">
+      <c r="C4" s="223">
         <v>43507</v>
       </c>
-      <c r="D4" s="233"/>
-      <c r="E4" s="234"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="230" t="str">
+      <c r="K4" s="221" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="230" t="str">
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="221" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="231"/>
-      <c r="Y4" s="239" t="str">
+      <c r="S4" s="216"/>
+      <c r="T4" s="216"/>
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="230" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="240"/>
-      <c r="AF4" s="226" t="str">
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216"/>
+      <c r="AD4" s="216"/>
+      <c r="AE4" s="231"/>
+      <c r="AF4" s="215" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="208"/>
-      <c r="AL4" s="227"/>
-      <c r="AM4" s="219" t="str">
+      <c r="AG4" s="216"/>
+      <c r="AH4" s="216"/>
+      <c r="AI4" s="216"/>
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="244" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="208"/>
-      <c r="AO4" s="208"/>
-      <c r="AP4" s="208"/>
-      <c r="AQ4" s="208"/>
-      <c r="AR4" s="208"/>
-      <c r="AS4" s="220"/>
-      <c r="AT4" s="215" t="str">
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="216"/>
+      <c r="AP4" s="216"/>
+      <c r="AQ4" s="216"/>
+      <c r="AR4" s="216"/>
+      <c r="AS4" s="245"/>
+      <c r="AT4" s="240" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="208"/>
-      <c r="AV4" s="208"/>
-      <c r="AW4" s="208"/>
-      <c r="AX4" s="208"/>
-      <c r="AY4" s="208"/>
-      <c r="AZ4" s="216"/>
-      <c r="BA4" s="221" t="str">
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="241"/>
+      <c r="BA4" s="246" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="208"/>
-      <c r="BC4" s="208"/>
-      <c r="BD4" s="208"/>
-      <c r="BE4" s="208"/>
-      <c r="BF4" s="208"/>
-      <c r="BG4" s="222"/>
-      <c r="BH4" s="207" t="str">
+      <c r="BB4" s="216"/>
+      <c r="BC4" s="216"/>
+      <c r="BD4" s="216"/>
+      <c r="BE4" s="216"/>
+      <c r="BF4" s="216"/>
+      <c r="BG4" s="247"/>
+      <c r="BH4" s="234" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="208"/>
-      <c r="BJ4" s="208"/>
-      <c r="BK4" s="208"/>
-      <c r="BL4" s="208"/>
-      <c r="BM4" s="208"/>
-      <c r="BN4" s="209"/>
+      <c r="BI4" s="216"/>
+      <c r="BJ4" s="216"/>
+      <c r="BK4" s="216"/>
+      <c r="BL4" s="216"/>
+      <c r="BM4" s="216"/>
+      <c r="BN4" s="235"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="234"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="225"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="236">
+      <c r="K5" s="227">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="211"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="236">
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="219"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="227">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="211"/>
-      <c r="T5" s="211"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="211"/>
-      <c r="X5" s="237"/>
-      <c r="Y5" s="241">
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="228"/>
+      <c r="Y5" s="232">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="211"/>
-      <c r="AA5" s="211"/>
-      <c r="AB5" s="211"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="211"/>
-      <c r="AE5" s="242"/>
-      <c r="AF5" s="228">
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="233"/>
+      <c r="AF5" s="218">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="211"/>
-      <c r="AH5" s="211"/>
-      <c r="AI5" s="211"/>
-      <c r="AJ5" s="211"/>
-      <c r="AK5" s="211"/>
-      <c r="AL5" s="229"/>
-      <c r="AM5" s="213">
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="219"/>
+      <c r="AK5" s="219"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="238">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="211"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="211"/>
-      <c r="AQ5" s="211"/>
-      <c r="AR5" s="211"/>
-      <c r="AS5" s="214"/>
-      <c r="AT5" s="217">
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="219"/>
+      <c r="AQ5" s="219"/>
+      <c r="AR5" s="219"/>
+      <c r="AS5" s="239"/>
+      <c r="AT5" s="242">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="211"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="211"/>
-      <c r="AX5" s="211"/>
-      <c r="AY5" s="211"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="223">
+      <c r="AU5" s="219"/>
+      <c r="AV5" s="219"/>
+      <c r="AW5" s="219"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="219"/>
+      <c r="AZ5" s="243"/>
+      <c r="BA5" s="248">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="211"/>
-      <c r="BC5" s="211"/>
-      <c r="BD5" s="211"/>
-      <c r="BE5" s="211"/>
-      <c r="BF5" s="211"/>
-      <c r="BG5" s="224"/>
-      <c r="BH5" s="210">
+      <c r="BB5" s="219"/>
+      <c r="BC5" s="219"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="219"/>
+      <c r="BF5" s="219"/>
+      <c r="BG5" s="249"/>
+      <c r="BH5" s="236">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="211"/>
-      <c r="BJ5" s="211"/>
-      <c r="BK5" s="211"/>
-      <c r="BL5" s="211"/>
-      <c r="BM5" s="211"/>
-      <c r="BN5" s="212"/>
+      <c r="BI5" s="219"/>
+      <c r="BJ5" s="219"/>
+      <c r="BK5" s="219"/>
+      <c r="BL5" s="219"/>
+      <c r="BM5" s="219"/>
+      <c r="BN5" s="237"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5622,7 +5625,7 @@
         <f>IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
         <v>2</v>
       </c>
-      <c r="J9" s="244" t="s">
+      <c r="J9" s="207" t="s">
         <v>157</v>
       </c>
       <c r="K9" s="47"/>
@@ -5708,10 +5711,12 @@
         <v>0</v>
       </c>
       <c r="I10" s="134">
-        <f t="shared" ref="I10:I18" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
+        <f t="shared" ref="I10:I17" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
         <v>1</v>
       </c>
-      <c r="J10" s="67"/>
+      <c r="J10" s="67" t="s">
+        <v>162</v>
+      </c>
       <c r="K10" s="202"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -6051,7 +6056,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J14" s="245"/>
+      <c r="J14" s="208"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
@@ -6220,7 +6225,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J16" s="246"/>
+      <c r="J16" s="209"/>
       <c r="K16" s="202"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
@@ -6306,7 +6311,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J17" s="247" t="s">
+      <c r="J17" s="210" t="s">
         <v>157</v>
       </c>
       <c r="K17" s="202"/>
@@ -6454,14 +6459,14 @@
       <c r="A19" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="249" t="s">
+      <c r="C19" s="212" t="s">
         <v>160</v>
       </c>
       <c r="D19" s="183"/>
-      <c r="E19" s="250">
+      <c r="E19" s="213">
         <v>43515</v>
       </c>
       <c r="F19" s="184">
@@ -8680,6 +8685,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8691,14 +8704,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H41:H45 H8:H39">
@@ -8862,10 +8867,10 @@
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="243"/>
+      <c r="B13" s="250"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8926,10 +8931,10 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="243" t="s">
+      <c r="A23" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="243"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -9030,10 +9035,10 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="243" t="s">
+      <c r="A37" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="243"/>
+      <c r="B37" s="250"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="B38" s="162" t="s">
@@ -9070,10 +9075,10 @@
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="243" t="s">
+      <c r="A48" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="243"/>
+      <c r="B48" s="250"/>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="B49" s="162" t="s">
@@ -9171,10 +9176,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="243" t="s">
+      <c r="A64" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="243"/>
+      <c r="B64" s="250"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
@@ -9188,10 +9193,10 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="243" t="s">
+      <c r="A67" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="243"/>
+      <c r="B67" s="250"/>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
       <c r="A68" s="171" t="s">

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113CDF71-89E1-F346-9F9D-22599E4C1B5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52DE02-9EB7-254F-A093-C20469F3D464}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
   <si>
     <t>WBS</t>
   </si>
@@ -1606,9 +1606,6 @@
   </si>
   <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -3649,22 +3646,70 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3710,54 +3755,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4595,7 +4592,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4645,21 +4642,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="214"/>
-      <c r="AJ1" s="214"/>
-      <c r="AK1" s="214"/>
-      <c r="AL1" s="214"/>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="214"/>
-      <c r="AQ1" s="214"/>
-      <c r="AR1" s="214"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="232"/>
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="232"/>
+      <c r="AJ1" s="232"/>
+      <c r="AK1" s="232"/>
+      <c r="AL1" s="232"/>
+      <c r="AM1" s="232"/>
+      <c r="AN1" s="232"/>
+      <c r="AO1" s="232"/>
+      <c r="AP1" s="232"/>
+      <c r="AQ1" s="232"/>
+      <c r="AR1" s="232"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4762,191 +4759,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="223">
+      <c r="C4" s="239">
         <v>43507</v>
       </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="221" t="str">
+      <c r="K4" s="237" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="221" t="str">
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="237" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="216"/>
-      <c r="T4" s="216"/>
-      <c r="U4" s="216"/>
-      <c r="V4" s="216"/>
-      <c r="W4" s="216"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="230" t="str">
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="238"/>
+      <c r="Y4" s="246" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="216"/>
-      <c r="AA4" s="216"/>
-      <c r="AB4" s="216"/>
-      <c r="AC4" s="216"/>
-      <c r="AD4" s="216"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="215" t="str">
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="233" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="216"/>
-      <c r="AH4" s="216"/>
-      <c r="AI4" s="216"/>
-      <c r="AJ4" s="216"/>
-      <c r="AK4" s="216"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="244" t="str">
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="226" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="216"/>
-      <c r="AO4" s="216"/>
-      <c r="AP4" s="216"/>
-      <c r="AQ4" s="216"/>
-      <c r="AR4" s="216"/>
-      <c r="AS4" s="245"/>
-      <c r="AT4" s="240" t="str">
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
+      <c r="AP4" s="215"/>
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
+      <c r="AS4" s="227"/>
+      <c r="AT4" s="222" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="216"/>
-      <c r="AZ4" s="241"/>
-      <c r="BA4" s="246" t="str">
+      <c r="AU4" s="215"/>
+      <c r="AV4" s="215"/>
+      <c r="AW4" s="215"/>
+      <c r="AX4" s="215"/>
+      <c r="AY4" s="215"/>
+      <c r="AZ4" s="223"/>
+      <c r="BA4" s="228" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="216"/>
-      <c r="BC4" s="216"/>
-      <c r="BD4" s="216"/>
-      <c r="BE4" s="216"/>
-      <c r="BF4" s="216"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="234" t="str">
+      <c r="BB4" s="215"/>
+      <c r="BC4" s="215"/>
+      <c r="BD4" s="215"/>
+      <c r="BE4" s="215"/>
+      <c r="BF4" s="215"/>
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="214" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="216"/>
-      <c r="BJ4" s="216"/>
-      <c r="BK4" s="216"/>
-      <c r="BL4" s="216"/>
-      <c r="BM4" s="216"/>
-      <c r="BN4" s="235"/>
+      <c r="BI4" s="215"/>
+      <c r="BJ4" s="215"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="215"/>
+      <c r="BM4" s="215"/>
+      <c r="BN4" s="216"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="225"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="241"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="227">
+      <c r="K5" s="243">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="227">
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="245"/>
+      <c r="R5" s="243">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="219"/>
-      <c r="W5" s="219"/>
-      <c r="X5" s="228"/>
-      <c r="Y5" s="232">
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="218"/>
+      <c r="W5" s="218"/>
+      <c r="X5" s="244"/>
+      <c r="Y5" s="248">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="219"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="218">
+      <c r="Z5" s="218"/>
+      <c r="AA5" s="218"/>
+      <c r="AB5" s="218"/>
+      <c r="AC5" s="218"/>
+      <c r="AD5" s="218"/>
+      <c r="AE5" s="249"/>
+      <c r="AF5" s="235">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="219"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="238">
+      <c r="AG5" s="218"/>
+      <c r="AH5" s="218"/>
+      <c r="AI5" s="218"/>
+      <c r="AJ5" s="218"/>
+      <c r="AK5" s="218"/>
+      <c r="AL5" s="236"/>
+      <c r="AM5" s="220">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="219"/>
-      <c r="AO5" s="219"/>
-      <c r="AP5" s="219"/>
-      <c r="AQ5" s="219"/>
-      <c r="AR5" s="219"/>
-      <c r="AS5" s="239"/>
-      <c r="AT5" s="242">
+      <c r="AN5" s="218"/>
+      <c r="AO5" s="218"/>
+      <c r="AP5" s="218"/>
+      <c r="AQ5" s="218"/>
+      <c r="AR5" s="218"/>
+      <c r="AS5" s="221"/>
+      <c r="AT5" s="224">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="219"/>
-      <c r="AW5" s="219"/>
-      <c r="AX5" s="219"/>
-      <c r="AY5" s="219"/>
-      <c r="AZ5" s="243"/>
-      <c r="BA5" s="248">
+      <c r="AU5" s="218"/>
+      <c r="AV5" s="218"/>
+      <c r="AW5" s="218"/>
+      <c r="AX5" s="218"/>
+      <c r="AY5" s="218"/>
+      <c r="AZ5" s="225"/>
+      <c r="BA5" s="230">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="219"/>
-      <c r="BC5" s="219"/>
-      <c r="BD5" s="219"/>
-      <c r="BE5" s="219"/>
-      <c r="BF5" s="219"/>
-      <c r="BG5" s="249"/>
-      <c r="BH5" s="236">
+      <c r="BB5" s="218"/>
+      <c r="BC5" s="218"/>
+      <c r="BD5" s="218"/>
+      <c r="BE5" s="218"/>
+      <c r="BF5" s="218"/>
+      <c r="BG5" s="231"/>
+      <c r="BH5" s="217">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="219"/>
-      <c r="BJ5" s="219"/>
-      <c r="BK5" s="219"/>
-      <c r="BL5" s="219"/>
-      <c r="BM5" s="219"/>
-      <c r="BN5" s="237"/>
+      <c r="BI5" s="218"/>
+      <c r="BJ5" s="218"/>
+      <c r="BK5" s="218"/>
+      <c r="BL5" s="218"/>
+      <c r="BM5" s="218"/>
+      <c r="BN5" s="219"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5702,20 +5699,20 @@
       </c>
       <c r="F10" s="112">
         <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43516</v>
+        <v>43517</v>
       </c>
       <c r="G10" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="134">
         <f t="shared" ref="I10:I17" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="J10" s="67">
+        <v>2</v>
       </c>
       <c r="K10" s="202"/>
       <c r="L10" s="47"/>
@@ -8685,14 +8682,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8704,6 +8693,14 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H41:H45 H8:H39">

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52DE02-9EB7-254F-A093-C20469F3D464}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93025B1-7B10-D943-954C-CCD07196C820}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1605,7 +1605,7 @@
     <t>Todos</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -3646,70 +3646,22 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3755,6 +3707,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4592,7 +4592,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4642,21 +4642,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="232"/>
-      <c r="AN1" s="232"/>
-      <c r="AO1" s="232"/>
-      <c r="AP1" s="232"/>
-      <c r="AQ1" s="232"/>
-      <c r="AR1" s="232"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="214"/>
+      <c r="AQ1" s="214"/>
+      <c r="AR1" s="214"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4759,191 +4759,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="239">
+      <c r="C4" s="223">
         <v>43507</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="241"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="237" t="str">
+      <c r="K4" s="221" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="237" t="str">
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="221" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="238"/>
-      <c r="Y4" s="246" t="str">
+      <c r="S4" s="216"/>
+      <c r="T4" s="216"/>
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="230" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="233" t="str">
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216"/>
+      <c r="AD4" s="216"/>
+      <c r="AE4" s="231"/>
+      <c r="AF4" s="215" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="215"/>
-      <c r="AK4" s="215"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="226" t="str">
+      <c r="AG4" s="216"/>
+      <c r="AH4" s="216"/>
+      <c r="AI4" s="216"/>
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="244" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="215"/>
-      <c r="AO4" s="215"/>
-      <c r="AP4" s="215"/>
-      <c r="AQ4" s="215"/>
-      <c r="AR4" s="215"/>
-      <c r="AS4" s="227"/>
-      <c r="AT4" s="222" t="str">
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="216"/>
+      <c r="AP4" s="216"/>
+      <c r="AQ4" s="216"/>
+      <c r="AR4" s="216"/>
+      <c r="AS4" s="245"/>
+      <c r="AT4" s="240" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="215"/>
-      <c r="AV4" s="215"/>
-      <c r="AW4" s="215"/>
-      <c r="AX4" s="215"/>
-      <c r="AY4" s="215"/>
-      <c r="AZ4" s="223"/>
-      <c r="BA4" s="228" t="str">
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="241"/>
+      <c r="BA4" s="246" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="215"/>
-      <c r="BC4" s="215"/>
-      <c r="BD4" s="215"/>
-      <c r="BE4" s="215"/>
-      <c r="BF4" s="215"/>
-      <c r="BG4" s="229"/>
-      <c r="BH4" s="214" t="str">
+      <c r="BB4" s="216"/>
+      <c r="BC4" s="216"/>
+      <c r="BD4" s="216"/>
+      <c r="BE4" s="216"/>
+      <c r="BF4" s="216"/>
+      <c r="BG4" s="247"/>
+      <c r="BH4" s="234" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="215"/>
-      <c r="BJ4" s="215"/>
-      <c r="BK4" s="215"/>
-      <c r="BL4" s="215"/>
-      <c r="BM4" s="215"/>
-      <c r="BN4" s="216"/>
+      <c r="BI4" s="216"/>
+      <c r="BJ4" s="216"/>
+      <c r="BK4" s="216"/>
+      <c r="BL4" s="216"/>
+      <c r="BM4" s="216"/>
+      <c r="BN4" s="235"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="241"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="225"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="243">
+      <c r="K5" s="227">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="245"/>
-      <c r="R5" s="243">
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="219"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="227">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="244"/>
-      <c r="Y5" s="248">
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="228"/>
+      <c r="Y5" s="232">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="218"/>
-      <c r="AB5" s="218"/>
-      <c r="AC5" s="218"/>
-      <c r="AD5" s="218"/>
-      <c r="AE5" s="249"/>
-      <c r="AF5" s="235">
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="233"/>
+      <c r="AF5" s="218">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="218"/>
-      <c r="AH5" s="218"/>
-      <c r="AI5" s="218"/>
-      <c r="AJ5" s="218"/>
-      <c r="AK5" s="218"/>
-      <c r="AL5" s="236"/>
-      <c r="AM5" s="220">
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="219"/>
+      <c r="AK5" s="219"/>
+      <c r="AL5" s="220"/>
+      <c r="AM5" s="238">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="218"/>
-      <c r="AO5" s="218"/>
-      <c r="AP5" s="218"/>
-      <c r="AQ5" s="218"/>
-      <c r="AR5" s="218"/>
-      <c r="AS5" s="221"/>
-      <c r="AT5" s="224">
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="219"/>
+      <c r="AQ5" s="219"/>
+      <c r="AR5" s="219"/>
+      <c r="AS5" s="239"/>
+      <c r="AT5" s="242">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="218"/>
-      <c r="AV5" s="218"/>
-      <c r="AW5" s="218"/>
-      <c r="AX5" s="218"/>
-      <c r="AY5" s="218"/>
-      <c r="AZ5" s="225"/>
-      <c r="BA5" s="230">
+      <c r="AU5" s="219"/>
+      <c r="AV5" s="219"/>
+      <c r="AW5" s="219"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="219"/>
+      <c r="AZ5" s="243"/>
+      <c r="BA5" s="248">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="218"/>
-      <c r="BC5" s="218"/>
-      <c r="BD5" s="218"/>
-      <c r="BE5" s="218"/>
-      <c r="BF5" s="218"/>
-      <c r="BG5" s="231"/>
-      <c r="BH5" s="217">
+      <c r="BB5" s="219"/>
+      <c r="BC5" s="219"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="219"/>
+      <c r="BF5" s="219"/>
+      <c r="BG5" s="249"/>
+      <c r="BH5" s="236">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="218"/>
-      <c r="BJ5" s="218"/>
-      <c r="BK5" s="218"/>
-      <c r="BL5" s="218"/>
-      <c r="BM5" s="218"/>
-      <c r="BN5" s="219"/>
+      <c r="BI5" s="219"/>
+      <c r="BJ5" s="219"/>
+      <c r="BK5" s="219"/>
+      <c r="BL5" s="219"/>
+      <c r="BM5" s="219"/>
+      <c r="BN5" s="237"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -6468,17 +6468,17 @@
       </c>
       <c r="F19" s="184">
         <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>43515</v>
+        <v>43517</v>
       </c>
       <c r="G19" s="185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="186">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="187">
         <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="185" t="s">
         <v>161</v>
@@ -8682,6 +8682,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8693,14 +8701,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H41:H45 H8:H39">

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogobraga/Desktop/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93025B1-7B10-D943-954C-CCD07196C820}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049EF388-5244-7B4A-BFDC-CDA2A2301C28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -33,7 +33,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -482,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>WBS</t>
   </si>
@@ -1539,12 +1538,6 @@
     <t>João</t>
   </si>
   <si>
-    <t>Justificação do sistema</t>
-  </si>
-  <si>
-    <t>Utilidade do sistema</t>
-  </si>
-  <si>
     <t>Estabelecimento da identidade do projeto</t>
   </si>
   <si>
@@ -1606,6 +1599,9 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>Justificação, validação e utilidade do sistema</t>
   </si>
 </sst>
 </file>
@@ -3646,22 +3642,70 @@
     <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3707,54 +3751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4588,11 +4584,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET48"/>
+  <dimension ref="A1:ET47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4612,7 +4608,7 @@
   <sheetData>
     <row r="1" spans="1:150" s="66" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -4642,21 +4638,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="214"/>
-      <c r="AJ1" s="214"/>
-      <c r="AK1" s="214"/>
-      <c r="AL1" s="214"/>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="214"/>
-      <c r="AQ1" s="214"/>
-      <c r="AR1" s="214"/>
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="232"/>
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="232"/>
+      <c r="AJ1" s="232"/>
+      <c r="AK1" s="232"/>
+      <c r="AL1" s="232"/>
+      <c r="AM1" s="232"/>
+      <c r="AN1" s="232"/>
+      <c r="AO1" s="232"/>
+      <c r="AP1" s="232"/>
+      <c r="AQ1" s="232"/>
+      <c r="AR1" s="232"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4682,7 +4678,7 @@
     </row>
     <row r="2" spans="1:150" s="88" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="148" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -4759,191 +4755,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="223">
+      <c r="C4" s="239">
         <v>43507</v>
       </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="221" t="str">
+      <c r="K4" s="237" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
-      <c r="O4" s="216"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="221" t="str">
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="237" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="216"/>
-      <c r="T4" s="216"/>
-      <c r="U4" s="216"/>
-      <c r="V4" s="216"/>
-      <c r="W4" s="216"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="230" t="str">
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="238"/>
+      <c r="Y4" s="246" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="216"/>
-      <c r="AA4" s="216"/>
-      <c r="AB4" s="216"/>
-      <c r="AC4" s="216"/>
-      <c r="AD4" s="216"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="215" t="str">
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="233" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="216"/>
-      <c r="AH4" s="216"/>
-      <c r="AI4" s="216"/>
-      <c r="AJ4" s="216"/>
-      <c r="AK4" s="216"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="244" t="str">
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="226" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="216"/>
-      <c r="AO4" s="216"/>
-      <c r="AP4" s="216"/>
-      <c r="AQ4" s="216"/>
-      <c r="AR4" s="216"/>
-      <c r="AS4" s="245"/>
-      <c r="AT4" s="240" t="str">
+      <c r="AN4" s="215"/>
+      <c r="AO4" s="215"/>
+      <c r="AP4" s="215"/>
+      <c r="AQ4" s="215"/>
+      <c r="AR4" s="215"/>
+      <c r="AS4" s="227"/>
+      <c r="AT4" s="222" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="216"/>
-      <c r="AZ4" s="241"/>
-      <c r="BA4" s="246" t="str">
+      <c r="AU4" s="215"/>
+      <c r="AV4" s="215"/>
+      <c r="AW4" s="215"/>
+      <c r="AX4" s="215"/>
+      <c r="AY4" s="215"/>
+      <c r="AZ4" s="223"/>
+      <c r="BA4" s="228" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="216"/>
-      <c r="BC4" s="216"/>
-      <c r="BD4" s="216"/>
-      <c r="BE4" s="216"/>
-      <c r="BF4" s="216"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="234" t="str">
+      <c r="BB4" s="215"/>
+      <c r="BC4" s="215"/>
+      <c r="BD4" s="215"/>
+      <c r="BE4" s="215"/>
+      <c r="BF4" s="215"/>
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="214" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="216"/>
-      <c r="BJ4" s="216"/>
-      <c r="BK4" s="216"/>
-      <c r="BL4" s="216"/>
-      <c r="BM4" s="216"/>
-      <c r="BN4" s="235"/>
+      <c r="BI4" s="215"/>
+      <c r="BJ4" s="215"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="215"/>
+      <c r="BM4" s="215"/>
+      <c r="BN4" s="216"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="225"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="241"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="227">
+      <c r="K5" s="243">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="227">
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="245"/>
+      <c r="R5" s="243">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="219"/>
-      <c r="W5" s="219"/>
-      <c r="X5" s="228"/>
-      <c r="Y5" s="232">
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="218"/>
+      <c r="W5" s="218"/>
+      <c r="X5" s="244"/>
+      <c r="Y5" s="248">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="219"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="218">
+      <c r="Z5" s="218"/>
+      <c r="AA5" s="218"/>
+      <c r="AB5" s="218"/>
+      <c r="AC5" s="218"/>
+      <c r="AD5" s="218"/>
+      <c r="AE5" s="249"/>
+      <c r="AF5" s="235">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="219"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="238">
+      <c r="AG5" s="218"/>
+      <c r="AH5" s="218"/>
+      <c r="AI5" s="218"/>
+      <c r="AJ5" s="218"/>
+      <c r="AK5" s="218"/>
+      <c r="AL5" s="236"/>
+      <c r="AM5" s="220">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="219"/>
-      <c r="AO5" s="219"/>
-      <c r="AP5" s="219"/>
-      <c r="AQ5" s="219"/>
-      <c r="AR5" s="219"/>
-      <c r="AS5" s="239"/>
-      <c r="AT5" s="242">
+      <c r="AN5" s="218"/>
+      <c r="AO5" s="218"/>
+      <c r="AP5" s="218"/>
+      <c r="AQ5" s="218"/>
+      <c r="AR5" s="218"/>
+      <c r="AS5" s="221"/>
+      <c r="AT5" s="224">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="219"/>
-      <c r="AV5" s="219"/>
-      <c r="AW5" s="219"/>
-      <c r="AX5" s="219"/>
-      <c r="AY5" s="219"/>
-      <c r="AZ5" s="243"/>
-      <c r="BA5" s="248">
+      <c r="AU5" s="218"/>
+      <c r="AV5" s="218"/>
+      <c r="AW5" s="218"/>
+      <c r="AX5" s="218"/>
+      <c r="AY5" s="218"/>
+      <c r="AZ5" s="225"/>
+      <c r="BA5" s="230">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="219"/>
-      <c r="BC5" s="219"/>
-      <c r="BD5" s="219"/>
-      <c r="BE5" s="219"/>
-      <c r="BF5" s="219"/>
-      <c r="BG5" s="249"/>
-      <c r="BH5" s="236">
+      <c r="BB5" s="218"/>
+      <c r="BC5" s="218"/>
+      <c r="BD5" s="218"/>
+      <c r="BE5" s="218"/>
+      <c r="BF5" s="218"/>
+      <c r="BG5" s="231"/>
+      <c r="BH5" s="217">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="219"/>
-      <c r="BJ5" s="219"/>
-      <c r="BK5" s="219"/>
-      <c r="BL5" s="219"/>
-      <c r="BM5" s="219"/>
-      <c r="BN5" s="237"/>
+      <c r="BI5" s="218"/>
+      <c r="BJ5" s="218"/>
+      <c r="BK5" s="218"/>
+      <c r="BL5" s="218"/>
+      <c r="BM5" s="218"/>
+      <c r="BN5" s="219"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5210,7 +5206,7 @@
         <v>72</v>
       </c>
       <c r="J7" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K7" s="90" t="str">
         <f t="shared" ref="K7:AP7" si="5">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
@@ -5595,7 +5591,7 @@
     </row>
     <row r="9" spans="1:150" s="45" customFormat="1">
       <c r="A9" s="121" t="str">
-        <f t="shared" ref="A9:A15" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="117" t="s">
@@ -5623,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="207" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
@@ -5708,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="134">
-        <f t="shared" ref="I10:I17" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
+        <f t="shared" ref="I10:I16" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
         <v>2</v>
       </c>
       <c r="J10" s="67">
@@ -5771,34 +5767,38 @@
       <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
     </row>
-    <row r="11" spans="1:150" s="45" customFormat="1">
+    <row r="11" spans="1:150" s="45" customFormat="1" ht="26">
       <c r="A11" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C11" s="118" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="119"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="112" t="str">
-        <f t="shared" ref="F11:F14" si="10">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E11" s="116">
+        <v>43517</v>
+      </c>
+      <c r="F11" s="112">
+        <f t="shared" ref="F11:F13" si="10">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>43517</v>
       </c>
       <c r="G11" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="134">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>155</v>
+      </c>
       <c r="K11" s="202"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
@@ -5856,16 +5856,16 @@
       <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
     </row>
-    <row r="12" spans="1:150" s="45" customFormat="1">
+    <row r="12" spans="1:150" s="45" customFormat="1" ht="26">
       <c r="A12" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="119"/>
       <c r="E12" s="116"/>
@@ -5947,10 +5947,10 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="118" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>143</v>
       </c>
       <c r="D13" s="119"/>
       <c r="E13" s="116"/>
@@ -5968,8 +5968,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="202"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
@@ -6026,21 +6026,21 @@
       <c r="BM13" s="47"/>
       <c r="BN13" s="47"/>
     </row>
-    <row r="14" spans="1:150" s="45" customFormat="1" ht="26">
+    <row r="14" spans="1:150" s="45" customFormat="1">
       <c r="A14" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="B14" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="118" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>143</v>
       </c>
       <c r="D14" s="119"/>
       <c r="E14" s="116"/>
       <c r="F14" s="112" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G14" s="67">
@@ -6053,8 +6053,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J14" s="208"/>
-      <c r="K14" s="47"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="202"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -6111,34 +6111,33 @@
       <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
     </row>
-    <row r="15" spans="1:150" s="45" customFormat="1">
-      <c r="A15" s="121" t="str">
-        <f t="shared" si="8"/>
-        <v>1.7</v>
-      </c>
-      <c r="B15" s="117" t="s">
+    <row r="15" spans="1:150" s="45" customFormat="1" ht="12">
+      <c r="A15" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="112" t="str">
+      <c r="B15" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="183"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="184" t="str">
         <f>IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="185">
         <v>0</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="186">
         <v>0</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="209"/>
       <c r="K15" s="202"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
@@ -6198,31 +6197,35 @@
     </row>
     <row r="16" spans="1:150" s="45" customFormat="1" ht="12">
       <c r="A16" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="194" t="s">
         <v>146</v>
       </c>
+      <c r="B16" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="195" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="183"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="184" t="str">
+      <c r="E16" s="193">
+        <v>43513</v>
+      </c>
+      <c r="F16" s="184">
         <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G16" s="185">
-        <v>0</v>
-      </c>
-      <c r="H16" s="186">
-        <v>0</v>
+        <v>43515</v>
+      </c>
+      <c r="G16" s="189">
+        <v>3</v>
+      </c>
+      <c r="H16" s="190">
+        <v>0.5</v>
       </c>
       <c r="I16" s="187">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="209"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="210" t="s">
+        <v>155</v>
+      </c>
       <c r="K16" s="202"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
@@ -6280,37 +6283,33 @@
       <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
     </row>
-    <row r="17" spans="1:66" s="45" customFormat="1" ht="12">
+    <row r="17" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A17" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="198" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="196" t="s">
-        <v>151</v>
-      </c>
       <c r="C17" s="195" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D17" s="183"/>
-      <c r="E17" s="193">
-        <v>43513</v>
-      </c>
-      <c r="F17" s="184">
+      <c r="E17" s="197"/>
+      <c r="F17" s="184" t="str">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>43515</v>
-      </c>
-      <c r="G17" s="189">
-        <v>3</v>
-      </c>
-      <c r="H17" s="190">
-        <v>0.5</v>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G17" s="199">
+        <v>0</v>
+      </c>
+      <c r="H17" s="200">
+        <v>0</v>
       </c>
       <c r="I17" s="187">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="210" t="s">
-        <v>157</v>
-      </c>
+        <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="185"/>
       <c r="K17" s="202"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
@@ -6368,34 +6367,38 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="45" customFormat="1" ht="26">
+    <row r="18" spans="1:66" s="45" customFormat="1">
       <c r="A18" s="121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="195" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="B18" s="211" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="212" t="s">
+        <v>158</v>
       </c>
       <c r="D18" s="183"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="184" t="str">
+      <c r="E18" s="213">
+        <v>43515</v>
+      </c>
+      <c r="F18" s="184">
         <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G18" s="199">
-        <v>0</v>
-      </c>
-      <c r="H18" s="200">
-        <v>0</v>
+        <v>43517</v>
+      </c>
+      <c r="G18" s="185">
+        <v>3</v>
+      </c>
+      <c r="H18" s="186">
+        <v>0.2</v>
       </c>
       <c r="I18" s="187">
         <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="185"/>
-      <c r="K18" s="202"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="47"/>
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
@@ -6452,195 +6455,191 @@
       <c r="BM18" s="47"/>
       <c r="BN18" s="47"/>
     </row>
-    <row r="19" spans="1:66" s="45" customFormat="1">
-      <c r="A19" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="211" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="212" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="213">
-        <v>43515</v>
-      </c>
-      <c r="F19" s="184">
-        <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>43517</v>
-      </c>
-      <c r="G19" s="185">
-        <v>3</v>
-      </c>
-      <c r="H19" s="186">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="187">
-        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="185" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="47"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="47"/>
-      <c r="BD19" s="47"/>
-      <c r="BE19" s="47"/>
-      <c r="BF19" s="47"/>
-      <c r="BG19" s="47"/>
-      <c r="BH19" s="47"/>
-      <c r="BI19" s="47"/>
-      <c r="BJ19" s="47"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="47"/>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="47"/>
-    </row>
-    <row r="20" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A20" s="122" t="str">
+    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A19" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B20" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="52"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="52"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="52"/>
-      <c r="BG20" s="52"/>
-      <c r="BH20" s="52"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="52"/>
-      <c r="BM20" s="52"/>
-      <c r="BN20" s="52"/>
+      <c r="B19" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+    </row>
+    <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A20" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="116">
+        <v>43141</v>
+      </c>
+      <c r="F20" s="112">
+        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>43144</v>
+      </c>
+      <c r="G20" s="67">
+        <v>4</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0</v>
+      </c>
+      <c r="I20" s="134">
+        <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="201"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="47"/>
+      <c r="BD20" s="47"/>
+      <c r="BE20" s="47"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="47"/>
+      <c r="BH20" s="47"/>
+      <c r="BI20" s="47"/>
+      <c r="BJ20" s="47"/>
+      <c r="BK20" s="47"/>
+      <c r="BL20" s="47"/>
+      <c r="BM20" s="47"/>
+      <c r="BN20" s="47"/>
     </row>
     <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A21" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="116">
-        <v>43141</v>
+        <v>43145</v>
       </c>
       <c r="F21" s="112">
-        <f t="shared" ref="F21:F25" si="11">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>43144</v>
+        <f t="shared" si="11"/>
+        <v>43147</v>
       </c>
       <c r="G21" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="68">
         <v>0</v>
       </c>
       <c r="I21" s="134">
         <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>2</v>
-      </c>
-      <c r="J21" s="201"/>
-      <c r="K21" s="47"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="192"/>
+      <c r="K21" s="202"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -6700,7 +6699,7 @@
     <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A22" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>7</v>
@@ -6784,28 +6783,28 @@
     <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A23" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43145</v>
+        <v>43148</v>
       </c>
       <c r="F23" s="112">
         <f t="shared" si="11"/>
-        <v>43147</v>
+        <v>43153</v>
       </c>
       <c r="G23" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" s="68">
         <v>0</v>
       </c>
       <c r="I23" s="134">
         <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="192"/>
       <c r="K23" s="202"/>
@@ -6868,28 +6867,28 @@
     <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A24" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="116">
-        <v>43148</v>
+        <v>43154</v>
       </c>
       <c r="F24" s="112">
         <f t="shared" si="11"/>
-        <v>43153</v>
+        <v>43156</v>
       </c>
       <c r="G24" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24" s="68">
         <v>0</v>
       </c>
       <c r="I24" s="134">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" s="192"/>
       <c r="K24" s="202"/>
@@ -6949,190 +6948,190 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A25" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F25" s="112">
-        <f t="shared" si="11"/>
-        <v>43156</v>
-      </c>
-      <c r="G25" s="67">
-        <v>3</v>
-      </c>
-      <c r="H25" s="68">
-        <v>0</v>
-      </c>
-      <c r="I25" s="134">
-        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="192"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="47"/>
-      <c r="AZ25" s="47"/>
-      <c r="BA25" s="47"/>
-      <c r="BB25" s="47"/>
-      <c r="BC25" s="47"/>
-      <c r="BD25" s="47"/>
-      <c r="BE25" s="47"/>
-      <c r="BF25" s="47"/>
-      <c r="BG25" s="47"/>
-      <c r="BH25" s="47"/>
-      <c r="BI25" s="47"/>
-      <c r="BJ25" s="47"/>
-      <c r="BK25" s="47"/>
-      <c r="BL25" s="47"/>
-      <c r="BM25" s="47"/>
-      <c r="BN25" s="47"/>
-    </row>
-    <row r="26" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A26" s="122" t="str">
+    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A25" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B26" s="109" t="s">
+      <c r="B25" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="52"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="52"/>
-      <c r="BC26" s="52"/>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="52"/>
-      <c r="BH26" s="52"/>
-      <c r="BI26" s="52"/>
-      <c r="BJ26" s="52"/>
-      <c r="BK26" s="52"/>
-      <c r="BL26" s="52"/>
-      <c r="BM26" s="52"/>
-      <c r="BN26" s="52"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="52"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+      <c r="BN25" s="52"/>
+    </row>
+    <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A26" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="116">
+        <v>43141</v>
+      </c>
+      <c r="F26" s="112">
+        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>43144</v>
+      </c>
+      <c r="G26" s="67">
+        <v>4</v>
+      </c>
+      <c r="H26" s="68">
+        <v>0</v>
+      </c>
+      <c r="I26" s="134">
+        <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="192"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="47"/>
+      <c r="BB26" s="47"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="47"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="47"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="47"/>
+      <c r="BN26" s="47"/>
     </row>
     <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A27" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="116">
-        <v>43141</v>
+        <v>43145</v>
       </c>
       <c r="F27" s="112">
-        <f t="shared" ref="F27:F31" si="12">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
-        <v>43144</v>
+        <f t="shared" si="12"/>
+        <v>43147</v>
       </c>
       <c r="G27" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="68">
         <v>0</v>
       </c>
       <c r="I27" s="134">
         <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="192"/>
-      <c r="K27" s="202"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="203"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
@@ -7192,7 +7191,7 @@
     <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A28" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>7</v>
@@ -7276,28 +7275,28 @@
     <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="116">
-        <v>43145</v>
+        <v>43148</v>
       </c>
       <c r="F29" s="112">
         <f t="shared" si="12"/>
-        <v>43147</v>
+        <v>43153</v>
       </c>
       <c r="G29" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="68">
         <v>0</v>
       </c>
       <c r="I29" s="134">
         <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="203"/>
       <c r="K29" s="47"/>
@@ -7360,30 +7359,30 @@
     <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A30" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="116">
-        <v>43148</v>
+        <v>43154</v>
       </c>
       <c r="F30" s="112">
         <f t="shared" si="12"/>
-        <v>43153</v>
+        <v>43156</v>
       </c>
       <c r="G30" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="68">
         <v>0</v>
       </c>
       <c r="I30" s="134">
         <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>4</v>
-      </c>
-      <c r="J30" s="203"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="204"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -7441,177 +7440,177 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A31" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F31" s="112">
-        <f t="shared" si="12"/>
-        <v>43156</v>
-      </c>
-      <c r="G31" s="67">
-        <v>3</v>
-      </c>
-      <c r="H31" s="68">
-        <v>0</v>
-      </c>
-      <c r="I31" s="134">
-        <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="204"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="AY31" s="47"/>
-      <c r="AZ31" s="47"/>
-      <c r="BA31" s="47"/>
-      <c r="BB31" s="47"/>
-      <c r="BC31" s="47"/>
-      <c r="BD31" s="47"/>
-      <c r="BE31" s="47"/>
-      <c r="BF31" s="47"/>
-      <c r="BG31" s="47"/>
-      <c r="BH31" s="47"/>
-      <c r="BI31" s="47"/>
-      <c r="BJ31" s="47"/>
-      <c r="BK31" s="47"/>
-      <c r="BL31" s="47"/>
-      <c r="BM31" s="47"/>
-      <c r="BN31" s="47"/>
-    </row>
-    <row r="32" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A32" s="122" t="str">
+    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A31" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B31" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="52"/>
-      <c r="AQ32" s="52"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="52"/>
-      <c r="AY32" s="52"/>
-      <c r="AZ32" s="52"/>
-      <c r="BA32" s="52"/>
-      <c r="BB32" s="52"/>
-      <c r="BC32" s="52"/>
-      <c r="BD32" s="52"/>
-      <c r="BE32" s="52"/>
-      <c r="BF32" s="52"/>
-      <c r="BG32" s="52"/>
-      <c r="BH32" s="52"/>
-      <c r="BI32" s="52"/>
-      <c r="BJ32" s="52"/>
-      <c r="BK32" s="52"/>
-      <c r="BL32" s="52"/>
-      <c r="BM32" s="52"/>
-      <c r="BN32" s="52"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="52"/>
+      <c r="BG31" s="52"/>
+      <c r="BH31" s="52"/>
+      <c r="BI31" s="52"/>
+      <c r="BJ31" s="52"/>
+      <c r="BK31" s="52"/>
+      <c r="BL31" s="52"/>
+      <c r="BM31" s="52"/>
+      <c r="BN31" s="52"/>
+    </row>
+    <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A32" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="116">
+        <v>43129</v>
+      </c>
+      <c r="F32" s="112">
+        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G32" s="67">
+        <v>1</v>
+      </c>
+      <c r="H32" s="68">
+        <v>0</v>
+      </c>
+      <c r="I32" s="134">
+        <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="201"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
+      <c r="BA32" s="47"/>
+      <c r="BB32" s="47"/>
+      <c r="BC32" s="47"/>
+      <c r="BD32" s="47"/>
+      <c r="BE32" s="47"/>
+      <c r="BF32" s="47"/>
+      <c r="BG32" s="47"/>
+      <c r="BH32" s="47"/>
+      <c r="BI32" s="47"/>
+      <c r="BJ32" s="47"/>
+      <c r="BK32" s="47"/>
+      <c r="BL32" s="47"/>
+      <c r="BM32" s="47"/>
+      <c r="BN32" s="47"/>
     </row>
     <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A33" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="116">
-        <v>43129</v>
+        <v>43130</v>
       </c>
       <c r="F33" s="112">
-        <f t="shared" ref="F33:F37" si="13">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
-        <v>43129</v>
+        <f t="shared" si="13"/>
+        <v>43130</v>
       </c>
       <c r="G33" s="67">
         <v>1</v>
@@ -7623,7 +7622,7 @@
         <f>IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
         <v>1</v>
       </c>
-      <c r="J33" s="201"/>
+      <c r="J33" s="203"/>
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
@@ -7684,18 +7683,18 @@
     <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="F34" s="112">
         <f t="shared" si="13"/>
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="G34" s="67">
         <v>1</v>
@@ -7768,18 +7767,18 @@
     <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="F35" s="112">
         <f t="shared" si="13"/>
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="G35" s="67">
         <v>1</v>
@@ -7852,18 +7851,18 @@
     <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A36" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="116">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F36" s="112">
         <f t="shared" si="13"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G36" s="67">
         <v>1</v>
@@ -7875,7 +7874,7 @@
         <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
-      <c r="J36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -7933,33 +7932,17 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A37" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="116">
-        <v>43133</v>
-      </c>
-      <c r="F37" s="112">
-        <f t="shared" si="13"/>
-        <v>43133</v>
-      </c>
-      <c r="G37" s="67">
-        <v>1</v>
-      </c>
-      <c r="H37" s="68">
-        <v>0</v>
-      </c>
-      <c r="I37" s="134">
-        <f>IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="204"/>
+    <row r="37" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A37" s="44"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
@@ -8085,17 +8068,19 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A39" s="44"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="126"/>
+    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A39" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
@@ -8153,19 +8138,19 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A40" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
+    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A40" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="143"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8223,19 +8208,22 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A41" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+    <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A41" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="125"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8294,21 +8282,29 @@
       <c r="BN41" s="47"/>
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A42" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="125"/>
+      <c r="A42" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="112" t="str">
+        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68">
+        <v>0</v>
+      </c>
+      <c r="I42" s="134">
+        <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="124"/>
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
@@ -8368,17 +8364,17 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="str">
-        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="67"/>
@@ -8386,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="134">
-        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
+        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="124"/>
@@ -8449,17 +8445,17 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
       <c r="E44" s="116"/>
       <c r="F44" s="112" t="str">
-        <f t="shared" ref="F44:F45" si="14">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="67"/>
@@ -8467,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="134">
-        <f t="shared" ref="I44:I45" si="15">IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J44" s="124"/>
@@ -8528,168 +8524,79 @@
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
     </row>
-    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A45" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="112" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68">
-        <v>0</v>
-      </c>
-      <c r="I45" s="134">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="124"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="47"/>
-      <c r="AH45" s="47"/>
-      <c r="AI45" s="47"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="47"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="47"/>
-      <c r="AS45" s="47"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="47"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="47"/>
-      <c r="BC45" s="47"/>
-      <c r="BD45" s="47"/>
-      <c r="BE45" s="47"/>
-      <c r="BF45" s="47"/>
-      <c r="BG45" s="47"/>
-      <c r="BH45" s="47"/>
-      <c r="BI45" s="47"/>
-      <c r="BJ45" s="47"/>
-      <c r="BK45" s="47"/>
-      <c r="BL45" s="47"/>
-      <c r="BM45" s="47"/>
-      <c r="BN45" s="47"/>
-    </row>
-    <row r="46" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="60"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="60"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="60"/>
-      <c r="AQ46" s="60"/>
-      <c r="AR46" s="60"/>
-      <c r="AS46" s="60"/>
-      <c r="AT46" s="60"/>
-      <c r="AU46" s="60"/>
-      <c r="AV46" s="60"/>
-      <c r="AW46" s="60"/>
-      <c r="AX46" s="60"/>
-      <c r="AY46" s="60"/>
-      <c r="AZ46" s="60"/>
-      <c r="BA46" s="60"/>
-      <c r="BB46" s="60"/>
-      <c r="BC46" s="60"/>
-      <c r="BD46" s="60"/>
-      <c r="BE46" s="60"/>
-      <c r="BF46" s="60"/>
-      <c r="BG46" s="60"/>
-      <c r="BH46" s="60"/>
-      <c r="BI46" s="60"/>
-      <c r="BJ46" s="60"/>
-      <c r="BK46" s="60"/>
-      <c r="BL46" s="60"/>
-      <c r="BM46" s="60"/>
-      <c r="BN46" s="60"/>
-    </row>
+    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="60"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="60"/>
+      <c r="AR45" s="60"/>
+      <c r="AS45" s="60"/>
+      <c r="AT45" s="60"/>
+      <c r="AU45" s="60"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="60"/>
+      <c r="BE45" s="60"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="60"/>
+      <c r="BH45" s="60"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="60"/>
+      <c r="BK45" s="60"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="60"/>
+      <c r="BN45" s="60"/>
+    </row>
+    <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
     <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
-    <row r="48" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8701,9 +8608,17 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H41:H45 H8:H39">
+  <conditionalFormatting sqref="H40:H44 H8:H38">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8722,7 +8637,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN45">
+  <conditionalFormatting sqref="K8:BN44">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8730,7 +8645,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN45">
+  <conditionalFormatting sqref="K6:BN44">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8742,8 +8657,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A38:B39 B33 B34:B36 B27:B30 B21:B24 B41 B40 F20 F26 F32 E38:I41 I21 I14 I13 I11 I12 I10 E44:E45 E42:I42 H33:I36 H27:I30 H22:I24 H20:I20 H26:I26 H32:I32" unlockedFormula="1"/>
-    <ignoredError sqref="A32 A26 A20" formula="1"/>
+    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I13 I12 I11 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
+    <ignoredError sqref="A31 A25 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8791,7 +8706,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41:H45 H8:H39</xm:sqref>
+          <xm:sqref>H40:H44 H8:H38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogobraga/Desktop/MyChef/Fundamentacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049EF388-5244-7B4A-BFDC-CDA2A2301C28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A7539-CB57-F044-99CC-F04FCB96A134}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -481,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>WBS</t>
   </si>
@@ -1589,19 +1590,10 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>Escrita do relatório</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>Justificação, validação e utilidade do sistema</t>
+  </si>
+  <si>
+    <t>Braga, Milhazes</t>
   </si>
 </sst>
 </file>
@@ -3075,7 +3067,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3633,79 +3625,22 @@
     <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3751,6 +3686,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4584,11 +4567,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET47"/>
+  <dimension ref="A1:ET46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4638,21 +4621,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="232"/>
-      <c r="AN1" s="232"/>
-      <c r="AO1" s="232"/>
-      <c r="AP1" s="232"/>
-      <c r="AQ1" s="232"/>
-      <c r="AR1" s="232"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="211"/>
+      <c r="AK1" s="211"/>
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211"/>
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="211"/>
+      <c r="AP1" s="211"/>
+      <c r="AQ1" s="211"/>
+      <c r="AR1" s="211"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4755,191 +4738,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="239">
+      <c r="C4" s="220">
         <v>43507</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="241"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="222"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="237" t="str">
+      <c r="K4" s="218" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="237" t="str">
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="218" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="238"/>
-      <c r="Y4" s="246" t="str">
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="213"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="227" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="233" t="str">
+      <c r="Z4" s="213"/>
+      <c r="AA4" s="213"/>
+      <c r="AB4" s="213"/>
+      <c r="AC4" s="213"/>
+      <c r="AD4" s="213"/>
+      <c r="AE4" s="228"/>
+      <c r="AF4" s="212" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="215"/>
-      <c r="AK4" s="215"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="226" t="str">
+      <c r="AG4" s="213"/>
+      <c r="AH4" s="213"/>
+      <c r="AI4" s="213"/>
+      <c r="AJ4" s="213"/>
+      <c r="AK4" s="213"/>
+      <c r="AL4" s="214"/>
+      <c r="AM4" s="241" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="215"/>
-      <c r="AO4" s="215"/>
-      <c r="AP4" s="215"/>
-      <c r="AQ4" s="215"/>
-      <c r="AR4" s="215"/>
-      <c r="AS4" s="227"/>
-      <c r="AT4" s="222" t="str">
+      <c r="AN4" s="213"/>
+      <c r="AO4" s="213"/>
+      <c r="AP4" s="213"/>
+      <c r="AQ4" s="213"/>
+      <c r="AR4" s="213"/>
+      <c r="AS4" s="242"/>
+      <c r="AT4" s="237" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="215"/>
-      <c r="AV4" s="215"/>
-      <c r="AW4" s="215"/>
-      <c r="AX4" s="215"/>
-      <c r="AY4" s="215"/>
-      <c r="AZ4" s="223"/>
-      <c r="BA4" s="228" t="str">
+      <c r="AU4" s="213"/>
+      <c r="AV4" s="213"/>
+      <c r="AW4" s="213"/>
+      <c r="AX4" s="213"/>
+      <c r="AY4" s="213"/>
+      <c r="AZ4" s="238"/>
+      <c r="BA4" s="243" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="215"/>
-      <c r="BC4" s="215"/>
-      <c r="BD4" s="215"/>
-      <c r="BE4" s="215"/>
-      <c r="BF4" s="215"/>
-      <c r="BG4" s="229"/>
-      <c r="BH4" s="214" t="str">
+      <c r="BB4" s="213"/>
+      <c r="BC4" s="213"/>
+      <c r="BD4" s="213"/>
+      <c r="BE4" s="213"/>
+      <c r="BF4" s="213"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="231" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="215"/>
-      <c r="BJ4" s="215"/>
-      <c r="BK4" s="215"/>
-      <c r="BL4" s="215"/>
-      <c r="BM4" s="215"/>
-      <c r="BN4" s="216"/>
+      <c r="BI4" s="213"/>
+      <c r="BJ4" s="213"/>
+      <c r="BK4" s="213"/>
+      <c r="BL4" s="213"/>
+      <c r="BM4" s="213"/>
+      <c r="BN4" s="232"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="241"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="243">
+      <c r="K5" s="224">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="245"/>
-      <c r="R5" s="243">
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="224">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="244"/>
-      <c r="Y5" s="248">
+      <c r="S5" s="216"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="216"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="216"/>
+      <c r="X5" s="225"/>
+      <c r="Y5" s="229">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="218"/>
-      <c r="AB5" s="218"/>
-      <c r="AC5" s="218"/>
-      <c r="AD5" s="218"/>
-      <c r="AE5" s="249"/>
-      <c r="AF5" s="235">
+      <c r="Z5" s="216"/>
+      <c r="AA5" s="216"/>
+      <c r="AB5" s="216"/>
+      <c r="AC5" s="216"/>
+      <c r="AD5" s="216"/>
+      <c r="AE5" s="230"/>
+      <c r="AF5" s="215">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="218"/>
-      <c r="AH5" s="218"/>
-      <c r="AI5" s="218"/>
-      <c r="AJ5" s="218"/>
-      <c r="AK5" s="218"/>
-      <c r="AL5" s="236"/>
-      <c r="AM5" s="220">
+      <c r="AG5" s="216"/>
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="216"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="235">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="218"/>
-      <c r="AO5" s="218"/>
-      <c r="AP5" s="218"/>
-      <c r="AQ5" s="218"/>
-      <c r="AR5" s="218"/>
-      <c r="AS5" s="221"/>
-      <c r="AT5" s="224">
+      <c r="AN5" s="216"/>
+      <c r="AO5" s="216"/>
+      <c r="AP5" s="216"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
+      <c r="AS5" s="236"/>
+      <c r="AT5" s="239">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="218"/>
-      <c r="AV5" s="218"/>
-      <c r="AW5" s="218"/>
-      <c r="AX5" s="218"/>
-      <c r="AY5" s="218"/>
-      <c r="AZ5" s="225"/>
-      <c r="BA5" s="230">
+      <c r="AU5" s="216"/>
+      <c r="AV5" s="216"/>
+      <c r="AW5" s="216"/>
+      <c r="AX5" s="216"/>
+      <c r="AY5" s="216"/>
+      <c r="AZ5" s="240"/>
+      <c r="BA5" s="245">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="218"/>
-      <c r="BC5" s="218"/>
-      <c r="BD5" s="218"/>
-      <c r="BE5" s="218"/>
-      <c r="BF5" s="218"/>
-      <c r="BG5" s="231"/>
-      <c r="BH5" s="217">
+      <c r="BB5" s="216"/>
+      <c r="BC5" s="216"/>
+      <c r="BD5" s="216"/>
+      <c r="BE5" s="216"/>
+      <c r="BF5" s="216"/>
+      <c r="BG5" s="246"/>
+      <c r="BH5" s="233">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="218"/>
-      <c r="BJ5" s="218"/>
-      <c r="BK5" s="218"/>
-      <c r="BL5" s="218"/>
-      <c r="BM5" s="218"/>
-      <c r="BN5" s="219"/>
+      <c r="BI5" s="216"/>
+      <c r="BJ5" s="216"/>
+      <c r="BK5" s="216"/>
+      <c r="BL5" s="216"/>
+      <c r="BM5" s="216"/>
+      <c r="BN5" s="234"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5773,10 +5756,10 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="116">
@@ -6367,195 +6350,191 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="45" customFormat="1">
-      <c r="A18" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="211" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="212" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="213">
-        <v>43515</v>
-      </c>
-      <c r="F18" s="184">
-        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v>43517</v>
-      </c>
-      <c r="G18" s="185">
-        <v>3</v>
-      </c>
-      <c r="H18" s="186">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="187">
-        <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
-        <v>3</v>
-      </c>
-      <c r="J18" s="185" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-    </row>
-    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A19" s="122" t="str">
+    <row r="18" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A18" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B18" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
+    </row>
+    <row r="19" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A19" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="116">
+        <v>43141</v>
+      </c>
+      <c r="F19" s="112">
+        <f t="shared" ref="F19:F23" si="11">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>43144</v>
+      </c>
+      <c r="G19" s="67">
+        <v>4</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0</v>
+      </c>
+      <c r="I19" s="134">
+        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="201"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="47"/>
     </row>
     <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A20" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="116">
-        <v>43141</v>
+        <v>43145</v>
       </c>
       <c r="F20" s="112">
-        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43144</v>
+        <f t="shared" si="11"/>
+        <v>43147</v>
       </c>
       <c r="G20" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="68">
         <v>0</v>
       </c>
       <c r="I20" s="134">
         <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="201"/>
-      <c r="K20" s="47"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="192"/>
+      <c r="K20" s="202"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -6615,7 +6594,7 @@
     <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A21" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>7</v>
@@ -6699,28 +6678,28 @@
     <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A22" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="116">
-        <v>43145</v>
+        <v>43148</v>
       </c>
       <c r="F22" s="112">
         <f t="shared" si="11"/>
-        <v>43147</v>
+        <v>43153</v>
       </c>
       <c r="G22" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" s="68">
         <v>0</v>
       </c>
       <c r="I22" s="134">
         <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="192"/>
       <c r="K22" s="202"/>
@@ -6783,28 +6762,28 @@
     <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A23" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43148</v>
+        <v>43154</v>
       </c>
       <c r="F23" s="112">
         <f t="shared" si="11"/>
-        <v>43153</v>
+        <v>43156</v>
       </c>
       <c r="G23" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" s="68">
         <v>0</v>
       </c>
       <c r="I23" s="134">
         <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" s="192"/>
       <c r="K23" s="202"/>
@@ -6864,190 +6843,190 @@
       <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
     </row>
-    <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A24" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F24" s="112">
-        <f t="shared" si="11"/>
-        <v>43156</v>
-      </c>
-      <c r="G24" s="67">
-        <v>3</v>
-      </c>
-      <c r="H24" s="68">
-        <v>0</v>
-      </c>
-      <c r="I24" s="134">
-        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="192"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="47"/>
-      <c r="AZ24" s="47"/>
-      <c r="BA24" s="47"/>
-      <c r="BB24" s="47"/>
-      <c r="BC24" s="47"/>
-      <c r="BD24" s="47"/>
-      <c r="BE24" s="47"/>
-      <c r="BF24" s="47"/>
-      <c r="BG24" s="47"/>
-      <c r="BH24" s="47"/>
-      <c r="BI24" s="47"/>
-      <c r="BJ24" s="47"/>
-      <c r="BK24" s="47"/>
-      <c r="BL24" s="47"/>
-      <c r="BM24" s="47"/>
-      <c r="BN24" s="47"/>
-    </row>
-    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A25" s="122" t="str">
+    <row r="24" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A24" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B24" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="52"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="52"/>
+      <c r="BE24" s="52"/>
+      <c r="BF24" s="52"/>
+      <c r="BG24" s="52"/>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="52"/>
+      <c r="BJ24" s="52"/>
+      <c r="BK24" s="52"/>
+      <c r="BL24" s="52"/>
+      <c r="BM24" s="52"/>
+      <c r="BN24" s="52"/>
+    </row>
+    <row r="25" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A25" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="116">
+        <v>43141</v>
+      </c>
+      <c r="F25" s="112">
+        <f t="shared" ref="F25:F29" si="12">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>43144</v>
+      </c>
+      <c r="G25" s="67">
+        <v>4</v>
+      </c>
+      <c r="H25" s="68">
+        <v>0</v>
+      </c>
+      <c r="I25" s="134">
+        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="192"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
     </row>
     <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A26" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="116">
-        <v>43141</v>
+        <v>43145</v>
       </c>
       <c r="F26" s="112">
-        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>43144</v>
+        <f t="shared" si="12"/>
+        <v>43147</v>
       </c>
       <c r="G26" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="68">
         <v>0</v>
       </c>
       <c r="I26" s="134">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="202"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="203"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
@@ -7107,7 +7086,7 @@
     <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A27" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>7</v>
@@ -7191,28 +7170,28 @@
     <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A28" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="116">
-        <v>43145</v>
+        <v>43148</v>
       </c>
       <c r="F28" s="112">
         <f t="shared" si="12"/>
-        <v>43147</v>
+        <v>43153</v>
       </c>
       <c r="G28" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28" s="68">
         <v>0</v>
       </c>
       <c r="I28" s="134">
         <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="203"/>
       <c r="K28" s="47"/>
@@ -7275,30 +7254,30 @@
     <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="116">
-        <v>43148</v>
+        <v>43154</v>
       </c>
       <c r="F29" s="112">
         <f t="shared" si="12"/>
-        <v>43153</v>
+        <v>43156</v>
       </c>
       <c r="G29" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" s="68">
         <v>0</v>
       </c>
       <c r="I29" s="134">
         <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="203"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="204"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -7356,177 +7335,177 @@
       <c r="BM29" s="47"/>
       <c r="BN29" s="47"/>
     </row>
-    <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A30" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F30" s="112">
-        <f t="shared" si="12"/>
-        <v>43156</v>
-      </c>
-      <c r="G30" s="67">
-        <v>3</v>
-      </c>
-      <c r="H30" s="68">
-        <v>0</v>
-      </c>
-      <c r="I30" s="134">
-        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="204"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="47"/>
-      <c r="AV30" s="47"/>
-      <c r="AW30" s="47"/>
-      <c r="AX30" s="47"/>
-      <c r="AY30" s="47"/>
-      <c r="AZ30" s="47"/>
-      <c r="BA30" s="47"/>
-      <c r="BB30" s="47"/>
-      <c r="BC30" s="47"/>
-      <c r="BD30" s="47"/>
-      <c r="BE30" s="47"/>
-      <c r="BF30" s="47"/>
-      <c r="BG30" s="47"/>
-      <c r="BH30" s="47"/>
-      <c r="BI30" s="47"/>
-      <c r="BJ30" s="47"/>
-      <c r="BK30" s="47"/>
-      <c r="BL30" s="47"/>
-      <c r="BM30" s="47"/>
-      <c r="BN30" s="47"/>
-    </row>
-    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A31" s="122" t="str">
+    <row r="30" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A30" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B30" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
-      <c r="BB31" s="52"/>
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52"/>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="52"/>
-      <c r="BM31" s="52"/>
-      <c r="BN31" s="52"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="52"/>
+      <c r="BG30" s="52"/>
+      <c r="BH30" s="52"/>
+      <c r="BI30" s="52"/>
+      <c r="BJ30" s="52"/>
+      <c r="BK30" s="52"/>
+      <c r="BL30" s="52"/>
+      <c r="BM30" s="52"/>
+      <c r="BN30" s="52"/>
+    </row>
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A31" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="116">
+        <v>43129</v>
+      </c>
+      <c r="F31" s="112">
+        <f t="shared" ref="F31:F35" si="13">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G31" s="67">
+        <v>1</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0</v>
+      </c>
+      <c r="I31" s="134">
+        <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="201"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
     </row>
     <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A32" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="116">
-        <v>43129</v>
+        <v>43130</v>
       </c>
       <c r="F32" s="112">
-        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>43129</v>
+        <f t="shared" si="13"/>
+        <v>43130</v>
       </c>
       <c r="G32" s="67">
         <v>1</v>
@@ -7538,7 +7517,7 @@
         <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
         <v>1</v>
       </c>
-      <c r="J32" s="201"/>
+      <c r="J32" s="203"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -7599,18 +7578,18 @@
     <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A33" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="116">
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="F33" s="112">
         <f t="shared" si="13"/>
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="G33" s="67">
         <v>1</v>
@@ -7683,18 +7662,18 @@
     <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="F34" s="112">
         <f t="shared" si="13"/>
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="G34" s="67">
         <v>1</v>
@@ -7767,18 +7746,18 @@
     <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F35" s="112">
         <f t="shared" si="13"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G35" s="67">
         <v>1</v>
@@ -7790,7 +7769,7 @@
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
-      <c r="J35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
@@ -7848,33 +7827,17 @@
       <c r="BM35" s="47"/>
       <c r="BN35" s="47"/>
     </row>
-    <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A36" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="116">
-        <v>43133</v>
-      </c>
-      <c r="F36" s="112">
-        <f t="shared" si="13"/>
-        <v>43133</v>
-      </c>
-      <c r="G36" s="67">
-        <v>1</v>
-      </c>
-      <c r="H36" s="68">
-        <v>0</v>
-      </c>
-      <c r="I36" s="134">
-        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="204"/>
+    <row r="36" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A36" s="44"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="126"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -8000,17 +7963,19 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="126"/>
+    <row r="38" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A38" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
@@ -8068,19 +8033,19 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A39" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+    <row r="39" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A39" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="140"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="143"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
@@ -8138,19 +8103,22 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A40" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+    <row r="40" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A40" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B40" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="125"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8209,21 +8177,29 @@
       <c r="BN40" s="47"/>
     </row>
     <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A41" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="125"/>
+      <c r="A41" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="112" t="str">
+        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68">
+        <v>0</v>
+      </c>
+      <c r="I41" s="134">
+        <f>IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="124"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8283,17 +8259,17 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A42" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
       <c r="E42" s="116"/>
       <c r="F42" s="112" t="str">
-        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <f t="shared" ref="F42:F43" si="14">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="67"/>
@@ -8301,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="134">
-        <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42:I43" si="15">IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
         <v>0</v>
       </c>
       <c r="J42" s="124"/>
@@ -8364,17 +8340,17 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="str">
-        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="67"/>
@@ -8382,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="134">
-        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J43" s="124"/>
@@ -8443,160 +8419,87 @@
       <c r="BM43" s="47"/>
       <c r="BN43" s="47"/>
     </row>
-    <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="112" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68">
-        <v>0</v>
-      </c>
-      <c r="I44" s="134">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="47"/>
-      <c r="AS44" s="47"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
-      <c r="AV44" s="47"/>
-      <c r="AW44" s="47"/>
-      <c r="AX44" s="47"/>
-      <c r="AY44" s="47"/>
-      <c r="AZ44" s="47"/>
-      <c r="BA44" s="47"/>
-      <c r="BB44" s="47"/>
-      <c r="BC44" s="47"/>
-      <c r="BD44" s="47"/>
-      <c r="BE44" s="47"/>
-      <c r="BF44" s="47"/>
-      <c r="BG44" s="47"/>
-      <c r="BH44" s="47"/>
-      <c r="BI44" s="47"/>
-      <c r="BJ44" s="47"/>
-      <c r="BK44" s="47"/>
-      <c r="BL44" s="47"/>
-      <c r="BM44" s="47"/>
-      <c r="BN44" s="47"/>
-    </row>
-    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="60"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="60"/>
-      <c r="AV45" s="60"/>
-      <c r="AW45" s="60"/>
-      <c r="AX45" s="60"/>
-      <c r="AY45" s="60"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="60"/>
-      <c r="BB45" s="60"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="60"/>
-      <c r="BE45" s="60"/>
-      <c r="BF45" s="60"/>
-      <c r="BG45" s="60"/>
-      <c r="BH45" s="60"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="60"/>
-      <c r="BK45" s="60"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="60"/>
-      <c r="BN45" s="60"/>
-    </row>
+    <row r="44" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="60"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="60"/>
+      <c r="AN44" s="60"/>
+      <c r="AO44" s="60"/>
+      <c r="AP44" s="60"/>
+      <c r="AQ44" s="60"/>
+      <c r="AR44" s="60"/>
+      <c r="AS44" s="60"/>
+      <c r="AT44" s="60"/>
+      <c r="AU44" s="60"/>
+      <c r="AV44" s="60"/>
+      <c r="AW44" s="60"/>
+      <c r="AX44" s="60"/>
+      <c r="AY44" s="60"/>
+      <c r="AZ44" s="60"/>
+      <c r="BA44" s="60"/>
+      <c r="BB44" s="60"/>
+      <c r="BC44" s="60"/>
+      <c r="BD44" s="60"/>
+      <c r="BE44" s="60"/>
+      <c r="BF44" s="60"/>
+      <c r="BG44" s="60"/>
+      <c r="BH44" s="60"/>
+      <c r="BI44" s="60"/>
+      <c r="BJ44" s="60"/>
+      <c r="BK44" s="60"/>
+      <c r="BL44" s="60"/>
+      <c r="BM44" s="60"/>
+      <c r="BN44" s="60"/>
+    </row>
+    <row r="45" spans="1:66" ht="19.5" customHeight="1"/>
     <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
-    <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8608,17 +8511,9 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H40:H44 H8:H38">
+  <conditionalFormatting sqref="H39:H43 H8:H37">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8637,7 +8532,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
+  <conditionalFormatting sqref="K8:BN43">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8645,7 +8540,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
+  <conditionalFormatting sqref="K6:BN43">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8657,8 +8552,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I13 I12 I11 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A25 A19" formula="1"/>
+    <ignoredError sqref="A36:B37 B31 B32:B34 B25:B28 B19:B22 B39 B38 F18 F24 F30 E36:I39 I19 I13 I12 I11 I10 E42:E43 E40:I40 H31:I34 H25:I28 H20:I22 H18:I18 H24:I24 H30:I30" unlockedFormula="1"/>
+    <ignoredError sqref="A30 A24 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8706,7 +8601,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40:H44 H8:H38</xm:sqref>
+          <xm:sqref>H39:H43 H8:H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8779,10 +8674,10 @@
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="250"/>
+      <c r="B13" s="247"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8843,10 +8738,10 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="250" t="s">
+      <c r="A23" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="250"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -8947,10 +8842,10 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="250" t="s">
+      <c r="A37" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="250"/>
+      <c r="B37" s="247"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="B38" s="162" t="s">
@@ -8987,10 +8882,10 @@
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="250" t="s">
+      <c r="A48" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="250"/>
+      <c r="B48" s="247"/>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="B49" s="162" t="s">
@@ -9088,10 +8983,10 @@
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="250" t="s">
+      <c r="A64" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="250"/>
+      <c r="B64" s="247"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
@@ -9105,10 +9000,10 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="250" t="s">
+      <c r="A67" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="250"/>
+      <c r="B67" s="247"/>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
       <c r="A68" s="171" t="s">

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A7539-CB57-F044-99CC-F04FCB96A134}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB2867-BD60-2548-B950-787942CDE470}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>WBS</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>Braga, Milhazes</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +4574,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -6194,20 +6197,20 @@
       </c>
       <c r="F16" s="184">
         <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>43515</v>
+        <v>43518</v>
       </c>
       <c r="G16" s="189">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="190">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="187">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J16" s="210" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K16" s="202"/>
       <c r="L16" s="47"/>

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB2867-BD60-2548-B950-787942CDE470}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD8663D-9889-7644-BE74-48C869E0D574}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
   <si>
     <t>WBS</t>
   </si>
@@ -1597,6 +1597,12 @@
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>1.11</t>
   </si>
 </sst>
 </file>
@@ -3070,7 +3076,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3628,22 +3634,70 @@
     <xf numFmtId="1" fontId="40" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3691,56 +3745,17 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4570,11 +4585,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET46"/>
+  <dimension ref="A1:ET47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4624,21 +4639,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="211"/>
-      <c r="AK1" s="211"/>
-      <c r="AL1" s="211"/>
-      <c r="AM1" s="211"/>
-      <c r="AN1" s="211"/>
-      <c r="AO1" s="211"/>
-      <c r="AP1" s="211"/>
-      <c r="AQ1" s="211"/>
-      <c r="AR1" s="211"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4741,191 +4756,191 @@
       <c r="B4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="236">
         <v>43507</v>
       </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="222"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238"/>
       <c r="H4" s="149" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="150">
         <v>1</v>
       </c>
-      <c r="K4" s="218" t="str">
+      <c r="K4" s="234" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="218" t="str">
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="234" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
-      <c r="W4" s="213"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="227" t="str">
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="212"/>
+      <c r="V4" s="212"/>
+      <c r="W4" s="212"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="243" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="213"/>
-      <c r="AA4" s="213"/>
-      <c r="AB4" s="213"/>
-      <c r="AC4" s="213"/>
-      <c r="AD4" s="213"/>
-      <c r="AE4" s="228"/>
-      <c r="AF4" s="212" t="str">
+      <c r="Z4" s="212"/>
+      <c r="AA4" s="212"/>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
+      <c r="AE4" s="244"/>
+      <c r="AF4" s="230" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="213"/>
-      <c r="AH4" s="213"/>
-      <c r="AI4" s="213"/>
-      <c r="AJ4" s="213"/>
-      <c r="AK4" s="213"/>
-      <c r="AL4" s="214"/>
-      <c r="AM4" s="241" t="str">
+      <c r="AG4" s="212"/>
+      <c r="AH4" s="212"/>
+      <c r="AI4" s="212"/>
+      <c r="AJ4" s="212"/>
+      <c r="AK4" s="212"/>
+      <c r="AL4" s="231"/>
+      <c r="AM4" s="223" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="213"/>
-      <c r="AP4" s="213"/>
-      <c r="AQ4" s="213"/>
-      <c r="AR4" s="213"/>
-      <c r="AS4" s="242"/>
-      <c r="AT4" s="237" t="str">
+      <c r="AN4" s="212"/>
+      <c r="AO4" s="212"/>
+      <c r="AP4" s="212"/>
+      <c r="AQ4" s="212"/>
+      <c r="AR4" s="212"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="219" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="213"/>
-      <c r="AV4" s="213"/>
-      <c r="AW4" s="213"/>
-      <c r="AX4" s="213"/>
-      <c r="AY4" s="213"/>
-      <c r="AZ4" s="238"/>
-      <c r="BA4" s="243" t="str">
+      <c r="AU4" s="212"/>
+      <c r="AV4" s="212"/>
+      <c r="AW4" s="212"/>
+      <c r="AX4" s="212"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="220"/>
+      <c r="BA4" s="225" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="213"/>
-      <c r="BC4" s="213"/>
-      <c r="BD4" s="213"/>
-      <c r="BE4" s="213"/>
-      <c r="BF4" s="213"/>
-      <c r="BG4" s="244"/>
-      <c r="BH4" s="231" t="str">
+      <c r="BB4" s="212"/>
+      <c r="BC4" s="212"/>
+      <c r="BD4" s="212"/>
+      <c r="BE4" s="212"/>
+      <c r="BF4" s="212"/>
+      <c r="BG4" s="226"/>
+      <c r="BH4" s="211" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="213"/>
-      <c r="BJ4" s="213"/>
-      <c r="BK4" s="213"/>
-      <c r="BL4" s="213"/>
-      <c r="BM4" s="213"/>
-      <c r="BN4" s="232"/>
+      <c r="BI4" s="212"/>
+      <c r="BJ4" s="212"/>
+      <c r="BK4" s="212"/>
+      <c r="BL4" s="212"/>
+      <c r="BM4" s="212"/>
+      <c r="BN4" s="213"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="147"/>
       <c r="B5" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
       <c r="F5" s="145"/>
       <c r="G5" s="145"/>
       <c r="H5" s="145"/>
       <c r="I5" s="145"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="224">
+      <c r="K5" s="240">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="224">
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="240">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="216"/>
-      <c r="T5" s="216"/>
-      <c r="U5" s="216"/>
-      <c r="V5" s="216"/>
-      <c r="W5" s="216"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="229">
+      <c r="S5" s="215"/>
+      <c r="T5" s="215"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="215"/>
+      <c r="W5" s="215"/>
+      <c r="X5" s="241"/>
+      <c r="Y5" s="245">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="216"/>
-      <c r="AA5" s="216"/>
-      <c r="AB5" s="216"/>
-      <c r="AC5" s="216"/>
-      <c r="AD5" s="216"/>
-      <c r="AE5" s="230"/>
-      <c r="AF5" s="215">
+      <c r="Z5" s="215"/>
+      <c r="AA5" s="215"/>
+      <c r="AB5" s="215"/>
+      <c r="AC5" s="215"/>
+      <c r="AD5" s="215"/>
+      <c r="AE5" s="246"/>
+      <c r="AF5" s="232">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="216"/>
-      <c r="AH5" s="216"/>
-      <c r="AI5" s="216"/>
-      <c r="AJ5" s="216"/>
-      <c r="AK5" s="216"/>
-      <c r="AL5" s="217"/>
-      <c r="AM5" s="235">
+      <c r="AG5" s="215"/>
+      <c r="AH5" s="215"/>
+      <c r="AI5" s="215"/>
+      <c r="AJ5" s="215"/>
+      <c r="AK5" s="215"/>
+      <c r="AL5" s="233"/>
+      <c r="AM5" s="217">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="216"/>
-      <c r="AO5" s="216"/>
-      <c r="AP5" s="216"/>
-      <c r="AQ5" s="216"/>
-      <c r="AR5" s="216"/>
-      <c r="AS5" s="236"/>
-      <c r="AT5" s="239">
+      <c r="AN5" s="215"/>
+      <c r="AO5" s="215"/>
+      <c r="AP5" s="215"/>
+      <c r="AQ5" s="215"/>
+      <c r="AR5" s="215"/>
+      <c r="AS5" s="218"/>
+      <c r="AT5" s="221">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="216"/>
-      <c r="AV5" s="216"/>
-      <c r="AW5" s="216"/>
-      <c r="AX5" s="216"/>
-      <c r="AY5" s="216"/>
-      <c r="AZ5" s="240"/>
-      <c r="BA5" s="245">
+      <c r="AU5" s="215"/>
+      <c r="AV5" s="215"/>
+      <c r="AW5" s="215"/>
+      <c r="AX5" s="215"/>
+      <c r="AY5" s="215"/>
+      <c r="AZ5" s="222"/>
+      <c r="BA5" s="227">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="216"/>
-      <c r="BC5" s="216"/>
-      <c r="BD5" s="216"/>
-      <c r="BE5" s="216"/>
-      <c r="BF5" s="216"/>
-      <c r="BG5" s="246"/>
-      <c r="BH5" s="233">
+      <c r="BB5" s="215"/>
+      <c r="BC5" s="215"/>
+      <c r="BD5" s="215"/>
+      <c r="BE5" s="215"/>
+      <c r="BF5" s="215"/>
+      <c r="BG5" s="228"/>
+      <c r="BH5" s="214">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="216"/>
-      <c r="BJ5" s="216"/>
-      <c r="BK5" s="216"/>
-      <c r="BL5" s="216"/>
-      <c r="BM5" s="216"/>
-      <c r="BN5" s="234"/>
+      <c r="BI5" s="215"/>
+      <c r="BJ5" s="215"/>
+      <c r="BK5" s="215"/>
+      <c r="BL5" s="215"/>
+      <c r="BM5" s="215"/>
+      <c r="BN5" s="216"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -6024,22 +6039,26 @@
         <v>144</v>
       </c>
       <c r="D14" s="119"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="112" t="str">
+      <c r="E14" s="116">
+        <v>43516</v>
+      </c>
+      <c r="F14" s="112">
         <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43517</v>
       </c>
       <c r="G14" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="134">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="67"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>158</v>
+      </c>
       <c r="K14" s="202"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
@@ -6108,22 +6127,26 @@
         <v>144</v>
       </c>
       <c r="D15" s="183"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="184" t="str">
+      <c r="E15" s="206">
+        <v>43518</v>
+      </c>
+      <c r="F15" s="184">
         <f>IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43518</v>
       </c>
       <c r="G15" s="185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="187">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="209"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="209" t="s">
+        <v>155</v>
+      </c>
       <c r="K15" s="202"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
@@ -6280,22 +6303,26 @@
         <v>140</v>
       </c>
       <c r="D17" s="183"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="184" t="str">
+      <c r="E17" s="197">
+        <v>43517</v>
+      </c>
+      <c r="F17" s="184">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43518</v>
       </c>
       <c r="G17" s="199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="187">
         <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="185"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="185" t="s">
+        <v>158</v>
+      </c>
       <c r="K17" s="202"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
@@ -6353,191 +6380,195 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A18" s="122" t="str">
+    <row r="18" spans="1:66" s="45" customFormat="1">
+      <c r="A18" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="248" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="249" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="250">
+        <v>43518</v>
+      </c>
+      <c r="F18" s="184">
+        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v>43519</v>
+      </c>
+      <c r="G18" s="185">
+        <v>2</v>
+      </c>
+      <c r="H18" s="186">
+        <v>1</v>
+      </c>
+      <c r="I18" s="187">
+        <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="47"/>
+      <c r="BB18" s="47"/>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="47"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="47"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="47"/>
+      <c r="BJ18" s="47"/>
+      <c r="BK18" s="47"/>
+      <c r="BL18" s="47"/>
+      <c r="BM18" s="47"/>
+      <c r="BN18" s="47"/>
+    </row>
+    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A19" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B19" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-    </row>
-    <row r="19" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A19" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F19" s="112">
-        <f t="shared" ref="F19:F23" si="11">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>43144</v>
-      </c>
-      <c r="G19" s="67">
-        <v>4</v>
-      </c>
-      <c r="H19" s="68">
-        <v>0</v>
-      </c>
-      <c r="I19" s="134">
-        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
-        <v>2</v>
-      </c>
-      <c r="J19" s="201"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="47"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="47"/>
-      <c r="BD19" s="47"/>
-      <c r="BE19" s="47"/>
-      <c r="BF19" s="47"/>
-      <c r="BG19" s="47"/>
-      <c r="BH19" s="47"/>
-      <c r="BI19" s="47"/>
-      <c r="BJ19" s="47"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="47"/>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="47"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
     </row>
     <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A20" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="116">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F20" s="112">
-        <f t="shared" si="11"/>
-        <v>43147</v>
+        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>43144</v>
       </c>
       <c r="G20" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="68">
         <v>0</v>
       </c>
       <c r="I20" s="134">
         <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>3</v>
-      </c>
-      <c r="J20" s="192"/>
-      <c r="K20" s="202"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="201"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -6597,7 +6628,7 @@
     <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A21" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>7</v>
@@ -6681,28 +6712,28 @@
     <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A22" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="116">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="F22" s="112">
         <f t="shared" si="11"/>
-        <v>43153</v>
+        <v>43147</v>
       </c>
       <c r="G22" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" s="68">
         <v>0</v>
       </c>
       <c r="I22" s="134">
         <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" s="192"/>
       <c r="K22" s="202"/>
@@ -6765,28 +6796,28 @@
     <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A23" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43154</v>
+        <v>43148</v>
       </c>
       <c r="F23" s="112">
         <f t="shared" si="11"/>
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="G23" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" s="68">
         <v>0</v>
       </c>
       <c r="I23" s="134">
         <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="192"/>
       <c r="K23" s="202"/>
@@ -6846,190 +6877,190 @@
       <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
     </row>
-    <row r="24" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A24" s="122" t="str">
+    <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A24" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="116">
+        <v>43154</v>
+      </c>
+      <c r="F24" s="112">
+        <f t="shared" si="11"/>
+        <v>43156</v>
+      </c>
+      <c r="G24" s="67">
+        <v>3</v>
+      </c>
+      <c r="H24" s="68">
+        <v>0</v>
+      </c>
+      <c r="I24" s="134">
+        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="192"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="47"/>
+      <c r="BB24" s="47"/>
+      <c r="BC24" s="47"/>
+      <c r="BD24" s="47"/>
+      <c r="BE24" s="47"/>
+      <c r="BF24" s="47"/>
+      <c r="BG24" s="47"/>
+      <c r="BH24" s="47"/>
+      <c r="BI24" s="47"/>
+      <c r="BJ24" s="47"/>
+      <c r="BK24" s="47"/>
+      <c r="BL24" s="47"/>
+      <c r="BM24" s="47"/>
+      <c r="BN24" s="47"/>
+    </row>
+    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A25" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B25" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="52"/>
-      <c r="BM24" s="52"/>
-      <c r="BN24" s="52"/>
-    </row>
-    <row r="25" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A25" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F25" s="112">
-        <f t="shared" ref="F25:F29" si="12">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>43144</v>
-      </c>
-      <c r="G25" s="67">
-        <v>4</v>
-      </c>
-      <c r="H25" s="68">
-        <v>0</v>
-      </c>
-      <c r="I25" s="134">
-        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
-        <v>2</v>
-      </c>
-      <c r="J25" s="192"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="47"/>
-      <c r="AZ25" s="47"/>
-      <c r="BA25" s="47"/>
-      <c r="BB25" s="47"/>
-      <c r="BC25" s="47"/>
-      <c r="BD25" s="47"/>
-      <c r="BE25" s="47"/>
-      <c r="BF25" s="47"/>
-      <c r="BG25" s="47"/>
-      <c r="BH25" s="47"/>
-      <c r="BI25" s="47"/>
-      <c r="BJ25" s="47"/>
-      <c r="BK25" s="47"/>
-      <c r="BL25" s="47"/>
-      <c r="BM25" s="47"/>
-      <c r="BN25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="52"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="52"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+      <c r="BN25" s="52"/>
     </row>
     <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A26" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="116">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F26" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
+        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>43144</v>
       </c>
       <c r="G26" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="68">
         <v>0</v>
       </c>
       <c r="I26" s="134">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>3</v>
-      </c>
-      <c r="J26" s="203"/>
-      <c r="K26" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="192"/>
+      <c r="K26" s="202"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
@@ -7089,7 +7120,7 @@
     <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A27" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>7</v>
@@ -7173,28 +7204,28 @@
     <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A28" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="116">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="F28" s="112">
         <f t="shared" si="12"/>
-        <v>43153</v>
+        <v>43147</v>
       </c>
       <c r="G28" s="67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" s="68">
         <v>0</v>
       </c>
       <c r="I28" s="134">
         <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="203"/>
       <c r="K28" s="47"/>
@@ -7257,30 +7288,30 @@
     <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="116">
-        <v>43154</v>
+        <v>43148</v>
       </c>
       <c r="F29" s="112">
         <f t="shared" si="12"/>
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="G29" s="67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="68">
         <v>0</v>
       </c>
       <c r="I29" s="134">
         <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="204"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="203"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -7338,177 +7369,177 @@
       <c r="BM29" s="47"/>
       <c r="BN29" s="47"/>
     </row>
-    <row r="30" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A30" s="122" t="str">
+    <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A30" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="116">
+        <v>43154</v>
+      </c>
+      <c r="F30" s="112">
+        <f t="shared" si="12"/>
+        <v>43156</v>
+      </c>
+      <c r="G30" s="67">
+        <v>3</v>
+      </c>
+      <c r="H30" s="68">
+        <v>0</v>
+      </c>
+      <c r="I30" s="134">
+        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="204"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="47"/>
+      <c r="AZ30" s="47"/>
+      <c r="BA30" s="47"/>
+      <c r="BB30" s="47"/>
+      <c r="BC30" s="47"/>
+      <c r="BD30" s="47"/>
+      <c r="BE30" s="47"/>
+      <c r="BF30" s="47"/>
+      <c r="BG30" s="47"/>
+      <c r="BH30" s="47"/>
+      <c r="BI30" s="47"/>
+      <c r="BJ30" s="47"/>
+      <c r="BK30" s="47"/>
+      <c r="BL30" s="47"/>
+      <c r="BM30" s="47"/>
+      <c r="BN30" s="47"/>
+    </row>
+    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A31" s="122" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B31" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="52"/>
-      <c r="BA30" s="52"/>
-      <c r="BB30" s="52"/>
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="52"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="52"/>
-      <c r="BH30" s="52"/>
-      <c r="BI30" s="52"/>
-      <c r="BJ30" s="52"/>
-      <c r="BK30" s="52"/>
-      <c r="BL30" s="52"/>
-      <c r="BM30" s="52"/>
-      <c r="BN30" s="52"/>
-    </row>
-    <row r="31" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A31" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="116">
-        <v>43129</v>
-      </c>
-      <c r="F31" s="112">
-        <f t="shared" ref="F31:F35" si="13">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
-        <v>43129</v>
-      </c>
-      <c r="G31" s="67">
-        <v>1</v>
-      </c>
-      <c r="H31" s="68">
-        <v>0</v>
-      </c>
-      <c r="I31" s="134">
-        <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="201"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="AY31" s="47"/>
-      <c r="AZ31" s="47"/>
-      <c r="BA31" s="47"/>
-      <c r="BB31" s="47"/>
-      <c r="BC31" s="47"/>
-      <c r="BD31" s="47"/>
-      <c r="BE31" s="47"/>
-      <c r="BF31" s="47"/>
-      <c r="BG31" s="47"/>
-      <c r="BH31" s="47"/>
-      <c r="BI31" s="47"/>
-      <c r="BJ31" s="47"/>
-      <c r="BK31" s="47"/>
-      <c r="BL31" s="47"/>
-      <c r="BM31" s="47"/>
-      <c r="BN31" s="47"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="52"/>
+      <c r="BB31" s="52"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="52"/>
+      <c r="BE31" s="52"/>
+      <c r="BF31" s="52"/>
+      <c r="BG31" s="52"/>
+      <c r="BH31" s="52"/>
+      <c r="BI31" s="52"/>
+      <c r="BJ31" s="52"/>
+      <c r="BK31" s="52"/>
+      <c r="BL31" s="52"/>
+      <c r="BM31" s="52"/>
+      <c r="BN31" s="52"/>
     </row>
     <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A32" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="116">
-        <v>43130</v>
+        <v>43129</v>
       </c>
       <c r="F32" s="112">
-        <f t="shared" si="13"/>
-        <v>43130</v>
+        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>43129</v>
       </c>
       <c r="G32" s="67">
         <v>1</v>
@@ -7520,7 +7551,7 @@
         <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
         <v>1</v>
       </c>
-      <c r="J32" s="203"/>
+      <c r="J32" s="201"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -7581,18 +7612,18 @@
     <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A33" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="116">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="F33" s="112">
         <f t="shared" si="13"/>
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="G33" s="67">
         <v>1</v>
@@ -7665,18 +7696,18 @@
     <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A34" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43132</v>
+        <v>43131</v>
       </c>
       <c r="F34" s="112">
         <f t="shared" si="13"/>
-        <v>43132</v>
+        <v>43131</v>
       </c>
       <c r="G34" s="67">
         <v>1</v>
@@ -7749,18 +7780,18 @@
     <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
       <c r="A35" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="F35" s="112">
         <f t="shared" si="13"/>
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="G35" s="67">
         <v>1</v>
@@ -7772,7 +7803,7 @@
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
-      <c r="J35" s="204"/>
+      <c r="J35" s="203"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
@@ -7830,17 +7861,33 @@
       <c r="BM35" s="47"/>
       <c r="BN35" s="47"/>
     </row>
-    <row r="36" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A36" s="44"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="126"/>
+    <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="A36" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="116">
+        <v>43133</v>
+      </c>
+      <c r="F36" s="112">
+        <f t="shared" si="13"/>
+        <v>43133</v>
+      </c>
+      <c r="G36" s="67">
+        <v>1</v>
+      </c>
+      <c r="H36" s="68">
+        <v>0</v>
+      </c>
+      <c r="I36" s="134">
+        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="204"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -7966,19 +8013,17 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A38" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+    <row r="38" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A38" s="44"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="126"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
@@ -8036,19 +8081,19 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A39" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="143"/>
+    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A39" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
@@ -8106,22 +8151,19 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A40" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B40" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="125"/>
+    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A40" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="143"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8180,29 +8222,21 @@
       <c r="BN40" s="47"/>
     </row>
     <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A41" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="112" t="str">
-        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68">
-        <v>0</v>
-      </c>
-      <c r="I41" s="134">
-        <f>IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="124"/>
+      <c r="A41" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="125"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8262,17 +8296,17 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A42" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
       <c r="E42" s="116"/>
       <c r="F42" s="112" t="str">
-        <f t="shared" ref="F42:F43" si="14">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="67"/>
@@ -8280,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="134">
-        <f t="shared" ref="I42:I43" si="15">IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
+        <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
         <v>0</v>
       </c>
       <c r="J42" s="124"/>
@@ -8343,17 +8377,17 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="67"/>
@@ -8361,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="134">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="124"/>
@@ -8422,87 +8456,160 @@
       <c r="BM43" s="47"/>
       <c r="BN43" s="47"/>
     </row>
-    <row r="44" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="60"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="60"/>
-      <c r="AO44" s="60"/>
-      <c r="AP44" s="60"/>
-      <c r="AQ44" s="60"/>
-      <c r="AR44" s="60"/>
-      <c r="AS44" s="60"/>
-      <c r="AT44" s="60"/>
-      <c r="AU44" s="60"/>
-      <c r="AV44" s="60"/>
-      <c r="AW44" s="60"/>
-      <c r="AX44" s="60"/>
-      <c r="AY44" s="60"/>
-      <c r="AZ44" s="60"/>
-      <c r="BA44" s="60"/>
-      <c r="BB44" s="60"/>
-      <c r="BC44" s="60"/>
-      <c r="BD44" s="60"/>
-      <c r="BE44" s="60"/>
-      <c r="BF44" s="60"/>
-      <c r="BG44" s="60"/>
-      <c r="BH44" s="60"/>
-      <c r="BI44" s="60"/>
-      <c r="BJ44" s="60"/>
-      <c r="BK44" s="60"/>
-      <c r="BL44" s="60"/>
-      <c r="BM44" s="60"/>
-      <c r="BN44" s="60"/>
-    </row>
-    <row r="45" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A44" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="112" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68">
+        <v>0</v>
+      </c>
+      <c r="I44" s="134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="124"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
+      <c r="BA44" s="47"/>
+      <c r="BB44" s="47"/>
+      <c r="BC44" s="47"/>
+      <c r="BD44" s="47"/>
+      <c r="BE44" s="47"/>
+      <c r="BF44" s="47"/>
+      <c r="BG44" s="47"/>
+      <c r="BH44" s="47"/>
+      <c r="BI44" s="47"/>
+      <c r="BJ44" s="47"/>
+      <c r="BK44" s="47"/>
+      <c r="BL44" s="47"/>
+      <c r="BM44" s="47"/>
+      <c r="BN44" s="47"/>
+    </row>
+    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="60"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="60"/>
+      <c r="AR45" s="60"/>
+      <c r="AS45" s="60"/>
+      <c r="AT45" s="60"/>
+      <c r="AU45" s="60"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="60"/>
+      <c r="BE45" s="60"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="60"/>
+      <c r="BH45" s="60"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="60"/>
+      <c r="BK45" s="60"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="60"/>
+      <c r="BN45" s="60"/>
+    </row>
     <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8514,9 +8621,17 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H39:H43 H8:H37">
+  <conditionalFormatting sqref="H40:H44 H8:H38">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8535,7 +8650,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN43">
+  <conditionalFormatting sqref="K8:BN44">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8543,7 +8658,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN43">
+  <conditionalFormatting sqref="K6:BN44">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8555,8 +8670,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A36:B37 B31 B32:B34 B25:B28 B19:B22 B39 B38 F18 F24 F30 E36:I39 I19 I13 I12 I11 I10 E42:E43 E40:I40 H31:I34 H25:I28 H20:I22 H18:I18 H24:I24 H30:I30" unlockedFormula="1"/>
-    <ignoredError sqref="A30 A24 A18" formula="1"/>
+    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I13 I12 I11 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
+    <ignoredError sqref="A31 A25 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8604,7 +8719,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39:H43 H8:H37</xm:sqref>
+          <xm:sqref>H40:H44 H8:H38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Fundamentacao/gantt_realidade.xlsx
+++ b/Fundamentacao/gantt_realidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD8663D-9889-7644-BE74-48C869E0D574}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E79CE-853C-044E-A690-3519F52B6100}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -344,18 +344,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The duration is the number of calendar days for the given task. The duration is calculated as the </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The duration is the number of calendar days for the given task. The duration is calculated as the </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -364,7 +373,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -374,7 +383,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -383,7 +392,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -394,7 +403,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -403,7 +412,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4589,7 +4598,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5869,22 +5878,26 @@
         <v>141</v>
       </c>
       <c r="D12" s="119"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="112" t="str">
+      <c r="E12" s="116">
+        <v>43515</v>
+      </c>
+      <c r="F12" s="112">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+        <v>43516</v>
       </c>
       <c r="G12" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="134">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="67"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="67">
+        <v>2</v>
+      </c>
       <c r="K12" s="202"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
@@ -5954,22 +5967,26 @@
         <v>141</v>
       </c>
       <c r="D13" s="119"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="112" t="str">
+      <c r="E13" s="116">
+        <v>43517</v>
+      </c>
+      <c r="F13" s="112">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+        <v>43518</v>
       </c>
       <c r="G13" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="134">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="208"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="208">
+        <v>2</v>
+      </c>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
